--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R947"/>
+  <dimension ref="A1:R954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66948,41 +66948,41 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>8000</v>
+        <v>178</v>
       </c>
       <c r="K925" t="n">
-        <v>2700</v>
+        <v>7000</v>
       </c>
       <c r="L925" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M925" t="n">
-        <v>2888</v>
+        <v>7250</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="Q925" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67020,41 +67020,41 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>7000</v>
+        <v>97</v>
       </c>
       <c r="K926" t="n">
-        <v>3600</v>
+        <v>6400</v>
       </c>
       <c r="L926" t="n">
-        <v>4000</v>
+        <v>6900</v>
       </c>
       <c r="M926" t="n">
-        <v>3829</v>
+        <v>6647</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="Q926" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K927" t="n">
-        <v>6200</v>
+        <v>4900</v>
       </c>
       <c r="L927" t="n">
-        <v>6500</v>
+        <v>5300</v>
       </c>
       <c r="M927" t="n">
-        <v>6350</v>
+        <v>5100</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="Q927" t="n">
         <v>16</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,24 +67169,24 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K928" t="n">
-        <v>2700</v>
+        <v>4400</v>
       </c>
       <c r="L928" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M928" t="n">
-        <v>2850</v>
+        <v>4600</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="Q928" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>340</v>
+        <v>2500</v>
       </c>
       <c r="K929" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L929" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M929" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K930" t="n">
-        <v>7000</v>
+        <v>3900</v>
       </c>
       <c r="L930" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="M930" t="n">
-        <v>7000</v>
+        <v>4100</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="Q930" t="n">
         <v>16</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,24 +67385,24 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K931" t="n">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="L931" t="n">
-        <v>3600</v>
+        <v>5800</v>
       </c>
       <c r="M931" t="n">
-        <v>3450</v>
+        <v>5600</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>172</v>
+        <v>350</v>
       </c>
       <c r="Q931" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M932" t="n">
-        <v>7500</v>
+        <v>2888</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>61</v>
+        <v>7000</v>
       </c>
       <c r="K933" t="n">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="L933" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M933" t="n">
-        <v>9492</v>
+        <v>3829</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>527</v>
+        <v>191</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,29 +67596,29 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>56</v>
+        <v>520</v>
       </c>
       <c r="K934" t="n">
-        <v>5000</v>
+        <v>6200</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M934" t="n">
-        <v>5500</v>
+        <v>6350</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
@@ -67627,10 +67627,10 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67668,29 +67668,29 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>52</v>
+        <v>560</v>
       </c>
       <c r="K935" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="L935" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M935" t="n">
-        <v>7500</v>
+        <v>2850</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
@@ -67699,10 +67699,10 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>417</v>
+        <v>142</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,24 +67745,24 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J936" t="n">
         <v>340</v>
       </c>
       <c r="K936" t="n">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="L936" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="M936" t="n">
-        <v>5100</v>
+        <v>2400</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
@@ -67771,10 +67771,10 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>319</v>
+        <v>120</v>
       </c>
       <c r="Q936" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,24 +67817,24 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K937" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
         <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
@@ -67843,10 +67843,10 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="Q937" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,24 +67889,24 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J938" t="n">
         <v>250</v>
       </c>
       <c r="K938" t="n">
-        <v>4600</v>
+        <v>3300</v>
       </c>
       <c r="L938" t="n">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="M938" t="n">
-        <v>4700</v>
+        <v>3450</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
@@ -67915,10 +67915,10 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="Q938" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,29 +67956,29 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K939" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L939" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M939" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
@@ -67987,10 +67987,10 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q939" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68028,29 +68028,29 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K940" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="L940" t="n">
-        <v>4200</v>
+        <v>10000</v>
       </c>
       <c r="M940" t="n">
-        <v>4200</v>
+        <v>9492</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,10 +68059,10 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>262</v>
+        <v>527</v>
       </c>
       <c r="Q940" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68100,29 +68100,29 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K941" t="n">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="L941" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M941" t="n">
         <v>5500</v>
       </c>
-      <c r="M941" t="n">
-        <v>5352</v>
-      </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="Q941" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,11 +68177,11 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K942" t="n">
         <v>7000</v>
@@ -68194,7 +68194,7 @@
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
@@ -68203,10 +68203,10 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q942" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68244,29 +68244,29 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="K943" t="n">
         <v>5000</v>
       </c>
       <c r="L943" t="n">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="M943" t="n">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
@@ -68275,10 +68275,10 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,20 +68325,20 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="K944" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L944" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M944" t="n">
-        <v>5100</v>
+        <v>6500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q944" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,7 +68397,7 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K945" t="n">
         <v>4600</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,24 +68465,24 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K946" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="L946" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M946" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
@@ -68491,10 +68491,10 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q946" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J947" t="n">
         <v>160</v>
       </c>
       <c r="K947" t="n">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="L947" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M947" t="n">
-        <v>5400</v>
+        <v>4200</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,12 +68563,516 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="Q947" t="n">
         <v>16</v>
       </c>
       <c r="R947" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>9</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D948" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E948" t="n">
+        <v>13</v>
+      </c>
+      <c r="F948" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J948" t="n">
+        <v>79</v>
+      </c>
+      <c r="K948" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L948" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M948" t="n">
+        <v>5352</v>
+      </c>
+      <c r="N948" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O948" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P948" t="n">
+        <v>334</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>16</v>
+      </c>
+      <c r="R948" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>9</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D949" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E949" t="n">
+        <v>13</v>
+      </c>
+      <c r="F949" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J949" t="n">
+        <v>160</v>
+      </c>
+      <c r="K949" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L949" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M949" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O949" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P949" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>15</v>
+      </c>
+      <c r="R949" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>9</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D950" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13</v>
+      </c>
+      <c r="F950" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J950" t="n">
+        <v>52</v>
+      </c>
+      <c r="K950" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L950" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M950" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O950" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P950" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>15</v>
+      </c>
+      <c r="R950" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>9</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D951" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E951" t="n">
+        <v>13</v>
+      </c>
+      <c r="F951" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J951" t="n">
+        <v>430</v>
+      </c>
+      <c r="K951" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L951" t="n">
+        <v>5200</v>
+      </c>
+      <c r="M951" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N951" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O951" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P951" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>16</v>
+      </c>
+      <c r="R951" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>9</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D952" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E952" t="n">
+        <v>13</v>
+      </c>
+      <c r="F952" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J952" t="n">
+        <v>340</v>
+      </c>
+      <c r="K952" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L952" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M952" t="n">
+        <v>4700</v>
+      </c>
+      <c r="N952" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O952" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P952" t="n">
+        <v>294</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>16</v>
+      </c>
+      <c r="R952" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>9</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D953" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E953" t="n">
+        <v>13</v>
+      </c>
+      <c r="F953" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J953" t="n">
+        <v>210</v>
+      </c>
+      <c r="K953" t="n">
+        <v>4200</v>
+      </c>
+      <c r="L953" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M953" t="n">
+        <v>4200</v>
+      </c>
+      <c r="N953" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O953" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P953" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>16</v>
+      </c>
+      <c r="R953" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>9</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D954" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E954" t="n">
+        <v>13</v>
+      </c>
+      <c r="F954" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J954" t="n">
+        <v>160</v>
+      </c>
+      <c r="K954" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L954" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M954" t="n">
+        <v>5400</v>
+      </c>
+      <c r="N954" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O954" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P954" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>16</v>
+      </c>
+      <c r="R954" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R954"/>
+  <dimension ref="A1:R960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,36 +61697,36 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>500</v>
+        <v>187</v>
       </c>
       <c r="K852" t="n">
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="L852" t="n">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="M852" t="n">
-        <v>8000</v>
+        <v>7151</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/malla 22 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>364</v>
+        <v>477</v>
       </c>
       <c r="Q852" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61764,25 +61764,25 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>450</v>
+        <v>97</v>
       </c>
       <c r="K853" t="n">
-        <v>12000</v>
+        <v>6300</v>
       </c>
       <c r="L853" t="n">
-        <v>12000</v>
+        <v>6800</v>
       </c>
       <c r="M853" t="n">
-        <v>12000</v>
+        <v>6547</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>800</v>
+        <v>436</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="L854" t="n">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="M854" t="n">
-        <v>8279</v>
+        <v>5000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>517</v>
+        <v>312</v>
       </c>
       <c r="Q854" t="n">
         <v>16</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,36 +61913,36 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>11000</v>
+        <v>340</v>
       </c>
       <c r="K855" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="L855" t="n">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="M855" t="n">
-        <v>2664</v>
+        <v>4500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="Q855" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,36 +61985,36 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K856" t="n">
-        <v>11000</v>
+        <v>3800</v>
       </c>
       <c r="L856" t="n">
-        <v>11000</v>
+        <v>4200</v>
       </c>
       <c r="M856" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>733</v>
+        <v>250</v>
       </c>
       <c r="Q856" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K857" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="L857" t="n">
-        <v>8000</v>
+        <v>5700</v>
       </c>
       <c r="M857" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>500</v>
+        <v>344</v>
       </c>
       <c r="Q857" t="n">
         <v>16</v>
@@ -62124,41 +62124,41 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="K858" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L858" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M858" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 22 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="Q858" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62201,24 +62201,24 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>8000</v>
+        <v>450</v>
       </c>
       <c r="K859" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L859" t="n">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="M859" t="n">
-        <v>3538</v>
+        <v>12000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
@@ -62227,10 +62227,10 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>177</v>
+        <v>800</v>
       </c>
       <c r="Q859" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62268,41 +62268,41 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>196</v>
+        <v>680</v>
       </c>
       <c r="K860" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L860" t="n">
         <v>8500</v>
       </c>
-      <c r="L860" t="n">
-        <v>9000</v>
-      </c>
       <c r="M860" t="n">
-        <v>8750</v>
+        <v>8279</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="Q860" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62340,41 +62340,41 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>97</v>
+        <v>11000</v>
       </c>
       <c r="K861" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L861" t="n">
-        <v>11000</v>
+        <v>2800</v>
       </c>
       <c r="M861" t="n">
-        <v>10747</v>
+        <v>2664</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="K862" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L862" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M862" t="n">
-        <v>7747</v>
+        <v>11000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>516</v>
+        <v>733</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62484,41 +62484,41 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="K863" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L863" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M863" t="n">
-        <v>9750</v>
+        <v>8000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="Q863" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62556,41 +62556,41 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>1330</v>
+        <v>6000</v>
       </c>
       <c r="K864" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L864" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M864" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q864" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62628,41 +62628,41 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>610</v>
+        <v>8000</v>
       </c>
       <c r="K865" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L865" t="n">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="M865" t="n">
-        <v>5500</v>
+        <v>3538</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="Q865" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,20 +62709,20 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K866" t="n">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="L866" t="n">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="M866" t="n">
-        <v>5150</v>
+        <v>8750</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,10 +62731,10 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>322</v>
+        <v>583</v>
       </c>
       <c r="Q866" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,20 +62781,20 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K867" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L867" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M867" t="n">
-        <v>6750</v>
+        <v>10747</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
@@ -62803,10 +62803,10 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="Q867" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,20 +62853,20 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K868" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L868" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M868" t="n">
-        <v>4650</v>
+        <v>7747</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
@@ -62875,10 +62875,10 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>291</v>
+        <v>516</v>
       </c>
       <c r="Q868" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,20 +62925,20 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K869" t="n">
-        <v>5900</v>
+        <v>9500</v>
       </c>
       <c r="L869" t="n">
-        <v>6400</v>
+        <v>10000</v>
       </c>
       <c r="M869" t="n">
-        <v>6147</v>
+        <v>9750</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,10 +62947,10 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="Q869" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K870" t="n">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="L870" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M870" t="n">
-        <v>4150</v>
+        <v>7500</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="Q870" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63060,41 +63060,41 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>133</v>
+        <v>610</v>
       </c>
       <c r="K871" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L871" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M871" t="n">
         <v>5500</v>
       </c>
-      <c r="L871" t="n">
-        <v>5800</v>
-      </c>
-      <c r="M871" t="n">
-        <v>5651</v>
-      </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="Q871" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K872" t="n">
-        <v>6500</v>
+        <v>4900</v>
       </c>
       <c r="L872" t="n">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="M872" t="n">
-        <v>6650</v>
+        <v>5150</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="Q872" t="n">
         <v>16</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,24 +63209,24 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J873" t="n">
         <v>160</v>
       </c>
       <c r="K873" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="L873" t="n">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="M873" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
@@ -63235,10 +63235,10 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="Q873" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J874" t="n">
         <v>250</v>
       </c>
       <c r="K874" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L874" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M874" t="n">
-        <v>7000</v>
+        <v>4650</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="Q874" t="n">
         <v>16</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63348,29 +63348,29 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="K875" t="n">
-        <v>8000</v>
+        <v>5900</v>
       </c>
       <c r="L875" t="n">
-        <v>9000</v>
+        <v>6400</v>
       </c>
       <c r="M875" t="n">
-        <v>8500</v>
+        <v>6147</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
@@ -63379,10 +63379,10 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>567</v>
+        <v>307</v>
       </c>
       <c r="Q875" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63420,29 +63420,29 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K876" t="n">
-        <v>6000</v>
+        <v>3900</v>
       </c>
       <c r="L876" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M876" t="n">
-        <v>6500</v>
+        <v>4150</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
@@ -63451,10 +63451,10 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>433</v>
+        <v>259</v>
       </c>
       <c r="Q876" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>430</v>
+        <v>133</v>
       </c>
       <c r="K877" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L877" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M877" t="n">
-        <v>5100</v>
+        <v>5651</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Q877" t="n">
         <v>16</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K878" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L878" t="n">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="M878" t="n">
-        <v>4700</v>
+        <v>6650</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q878" t="n">
         <v>16</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J879" t="n">
         <v>160</v>
       </c>
       <c r="K879" t="n">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="L879" t="n">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="M879" t="n">
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="Q879" t="n">
         <v>16</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63708,29 +63708,29 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K880" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L880" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M880" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
@@ -63739,10 +63739,10 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>583</v>
+        <v>438</v>
       </c>
       <c r="Q880" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="K881" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L881" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M881" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63852,29 +63852,29 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K882" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L882" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="M882" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
@@ -63883,10 +63883,10 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="Q882" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K883" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="L883" t="n">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="M883" t="n">
-        <v>4750</v>
+        <v>5100</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="Q883" t="n">
         <v>16</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K884" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="L884" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M884" t="n">
-        <v>4250</v>
+        <v>4700</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Q884" t="n">
         <v>16</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64080,13 +64080,13 @@
         <v>160</v>
       </c>
       <c r="K885" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L885" t="n">
         <v>5500</v>
       </c>
-      <c r="L885" t="n">
-        <v>5800</v>
-      </c>
       <c r="M885" t="n">
-        <v>5650</v>
+        <v>5400</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="Q885" t="n">
         <v>16</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>696</v>
+        <v>210</v>
       </c>
       <c r="K886" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L886" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M886" t="n">
-        <v>8782</v>
+        <v>8750</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,24 +64217,24 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K887" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L887" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M887" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
@@ -64243,10 +64243,10 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="Q887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64284,29 +64284,29 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="K888" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="M888" t="n">
-        <v>6792</v>
+        <v>5200</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
@@ -64315,10 +64315,10 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>453</v>
+        <v>325</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,20 +64365,20 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K889" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L889" t="n">
-        <v>9000</v>
+        <v>4900</v>
       </c>
       <c r="M889" t="n">
-        <v>8492</v>
+        <v>4750</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
@@ -64387,10 +64387,10 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="Q889" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64428,41 +64428,41 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1060</v>
+        <v>250</v>
       </c>
       <c r="K890" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L890" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M890" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="Q890" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64500,41 +64500,41 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>790</v>
+        <v>160</v>
       </c>
       <c r="K891" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L891" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M891" t="n">
-        <v>7000</v>
+        <v>5650</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="Q891" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,20 +64581,20 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>2060</v>
+        <v>696</v>
       </c>
       <c r="K892" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L892" t="n">
-        <v>5400</v>
+        <v>10000</v>
       </c>
       <c r="M892" t="n">
-        <v>5229</v>
+        <v>8782</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,10 +64603,10 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>327</v>
+        <v>585</v>
       </c>
       <c r="Q892" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64644,29 +64644,29 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1590</v>
+        <v>124</v>
       </c>
       <c r="K893" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L893" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M893" t="n">
-        <v>4787</v>
+        <v>10500</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
@@ -64675,10 +64675,10 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>299</v>
+        <v>583</v>
       </c>
       <c r="Q893" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64716,29 +64716,29 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>1100</v>
+        <v>336</v>
       </c>
       <c r="K894" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L894" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M894" t="n">
-        <v>4304</v>
+        <v>6792</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>269</v>
+        <v>453</v>
       </c>
       <c r="Q894" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64788,29 +64788,29 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>719</v>
+        <v>61</v>
       </c>
       <c r="K895" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L895" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M895" t="n">
-        <v>5697</v>
+        <v>8492</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
@@ -64819,10 +64819,10 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>356</v>
+        <v>472</v>
       </c>
       <c r="Q895" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>1510</v>
+        <v>1060</v>
       </c>
       <c r="K896" t="n">
         <v>8000</v>
       </c>
       <c r="L896" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M896" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q896" t="n">
         <v>25</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="K897" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L897" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M897" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="Q897" t="n">
         <v>25</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,24 +65009,24 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>340</v>
+        <v>2060</v>
       </c>
       <c r="K898" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L898" t="n">
         <v>5400</v>
       </c>
-      <c r="L898" t="n">
-        <v>5600</v>
-      </c>
       <c r="M898" t="n">
-        <v>5500</v>
+        <v>5229</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
@@ -65035,10 +65035,10 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="Q898" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,24 +65081,24 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>160</v>
+        <v>1590</v>
       </c>
       <c r="K899" t="n">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="L899" t="n">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="M899" t="n">
-        <v>5200</v>
+        <v>4787</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65107,10 +65107,10 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q899" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,24 +65153,24 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>70</v>
+        <v>1100</v>
       </c>
       <c r="K900" t="n">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="L900" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="M900" t="n">
-        <v>5800</v>
+        <v>4304</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,24 +65225,24 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>520</v>
+        <v>719</v>
       </c>
       <c r="K901" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L901" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>7250</v>
+        <v>5697</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="Q901" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65292,41 +65292,41 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>5200</v>
+        <v>1510</v>
       </c>
       <c r="K902" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L902" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M902" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="Q902" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65364,41 +65364,41 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K903" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L903" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M903" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="Q903" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J904" t="n">
         <v>340</v>
       </c>
       <c r="K904" t="n">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="L904" t="n">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="M904" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>444</v>
+        <v>306</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,36 +65513,36 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>3400</v>
+        <v>160</v>
       </c>
       <c r="K905" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="L905" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="M905" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="Q905" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K906" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="L906" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M906" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>472</v>
+        <v>322</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65652,25 +65652,25 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="K907" t="n">
         <v>7000</v>
       </c>
       <c r="L907" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M907" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,36 +65729,36 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>430</v>
+        <v>5200</v>
       </c>
       <c r="K908" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L908" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M908" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="Q908" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,36 +65801,36 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K909" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="L909" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M909" t="n">
-        <v>4700</v>
+        <v>3000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="Q909" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,24 +65873,24 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K910" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="L910" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M910" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="Q910" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,36 +65945,36 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>160</v>
+        <v>3400</v>
       </c>
       <c r="K911" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="L911" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M911" t="n">
-        <v>5350</v>
+        <v>4000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="Q911" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66012,29 +66012,29 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K912" t="n">
-        <v>6100</v>
+        <v>8000</v>
       </c>
       <c r="L912" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="M912" t="n">
-        <v>6200</v>
+        <v>8500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="Q912" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66084,29 +66084,29 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K913" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="L913" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M913" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66115,10 +66115,10 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="Q913" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K914" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L914" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="M914" t="n">
-        <v>6500</v>
+        <v>5100</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="Q914" t="n">
         <v>16</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J915" t="n">
         <v>340</v>
       </c>
       <c r="K915" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="L915" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="M915" t="n">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="Q915" t="n">
         <v>16</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J916" t="n">
         <v>250</v>
       </c>
       <c r="K916" t="n">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="L916" t="n">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="M916" t="n">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="Q916" t="n">
         <v>16</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K917" t="n">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="L917" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="M917" t="n">
-        <v>4200</v>
+        <v>5350</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="Q917" t="n">
         <v>16</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K918" t="n">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="L918" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="M918" t="n">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="Q918" t="n">
         <v>16</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,24 +66521,24 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K919" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L919" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M919" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,11 +66593,11 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K920" t="n">
         <v>6500</v>
@@ -66610,7 +66610,7 @@
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,10 +66619,10 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Q920" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K921" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="L921" t="n">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="M921" t="n">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="Q921" t="n">
         <v>16</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,24 +66737,24 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K922" t="n">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="L922" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M922" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="Q922" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K923" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="L923" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="M923" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="Q923" t="n">
         <v>16</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>160</v>
       </c>
       <c r="K924" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="L924" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M924" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q924" t="n">
         <v>16</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66948,29 +66948,29 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>178</v>
+        <v>800</v>
       </c>
       <c r="K925" t="n">
         <v>7000</v>
       </c>
       <c r="L925" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M925" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="Q925" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67020,29 +67020,29 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>97</v>
+        <v>450</v>
       </c>
       <c r="K926" t="n">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="L926" t="n">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="M926" t="n">
-        <v>6647</v>
+        <v>6500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="Q926" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J927" t="n">
         <v>430</v>
       </c>
       <c r="K927" t="n">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="L927" t="n">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="M927" t="n">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="Q927" t="n">
         <v>16</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,24 +67169,24 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K928" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="L928" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M928" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q928" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,36 +67241,36 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="K929" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="L929" t="n">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="M929" t="n">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="Q929" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K930" t="n">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="L930" t="n">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="M930" t="n">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="Q930" t="n">
         <v>16</v>
@@ -67380,29 +67380,29 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K931" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="L931" t="n">
-        <v>5800</v>
+        <v>7500</v>
       </c>
       <c r="M931" t="n">
-        <v>5600</v>
+        <v>7250</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q931" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>8000</v>
+        <v>97</v>
       </c>
       <c r="K932" t="n">
-        <v>2700</v>
+        <v>6400</v>
       </c>
       <c r="L932" t="n">
-        <v>3000</v>
+        <v>6900</v>
       </c>
       <c r="M932" t="n">
-        <v>2888</v>
+        <v>6647</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>144</v>
+        <v>443</v>
       </c>
       <c r="Q932" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,36 +67529,36 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>7000</v>
+        <v>430</v>
       </c>
       <c r="K933" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="L933" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="M933" t="n">
-        <v>3829</v>
+        <v>5100</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="Q933" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K934" t="n">
-        <v>6200</v>
+        <v>4400</v>
       </c>
       <c r="L934" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M934" t="n">
-        <v>6350</v>
+        <v>4600</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>397</v>
+        <v>288</v>
       </c>
       <c r="Q934" t="n">
         <v>16</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>560</v>
+        <v>2500</v>
       </c>
       <c r="K935" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L935" t="n">
         <v>3000</v>
       </c>
       <c r="M935" t="n">
-        <v>2850</v>
+        <v>2900</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,24 +67745,24 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K936" t="n">
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="L936" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="M936" t="n">
-        <v>2400</v>
+        <v>4100</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
@@ -67771,10 +67771,10 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="Q936" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K937" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="L937" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M937" t="n">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="Q937" t="n">
         <v>16</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="K938" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="L938" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M938" t="n">
-        <v>3450</v>
+        <v>2888</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67956,41 +67956,41 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>160</v>
+        <v>7000</v>
       </c>
       <c r="K939" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="L939" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M939" t="n">
-        <v>7500</v>
+        <v>3829</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>500</v>
+        <v>191</v>
       </c>
       <c r="Q939" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68028,29 +68028,29 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>61</v>
+        <v>520</v>
       </c>
       <c r="K940" t="n">
-        <v>9000</v>
+        <v>6200</v>
       </c>
       <c r="L940" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M940" t="n">
-        <v>9492</v>
+        <v>6350</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,10 +68059,10 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>527</v>
+        <v>397</v>
       </c>
       <c r="Q940" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68100,29 +68100,29 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>56</v>
+        <v>560</v>
       </c>
       <c r="K941" t="n">
-        <v>5000</v>
+        <v>2700</v>
       </c>
       <c r="L941" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M941" t="n">
-        <v>5500</v>
+        <v>2850</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>367</v>
+        <v>142</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68172,29 +68172,29 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="K942" t="n">
-        <v>7000</v>
+        <v>2300</v>
       </c>
       <c r="L942" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M942" t="n">
-        <v>7500</v>
+        <v>2400</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
@@ -68203,10 +68203,10 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>417</v>
+        <v>120</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J943" t="n">
         <v>340</v>
       </c>
       <c r="K943" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L943" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M943" t="n">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="Q943" t="n">
         <v>16</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,24 +68321,24 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K944" t="n">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="L944" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="M944" t="n">
-        <v>6500</v>
+        <v>3450</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>325</v>
+        <v>172</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68388,29 +68388,29 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K945" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L945" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M945" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
@@ -68419,10 +68419,10 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>294</v>
+        <v>500</v>
       </c>
       <c r="Q945" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68460,29 +68460,29 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K946" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M946" t="n">
-        <v>5000</v>
+        <v>9492</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
@@ -68491,10 +68491,10 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>250</v>
+        <v>527</v>
       </c>
       <c r="Q946" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68532,29 +68532,29 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="K947" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="L947" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M947" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
@@ -68563,10 +68563,10 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="Q947" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68604,29 +68604,29 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K948" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="L948" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M948" t="n">
-        <v>5352</v>
+        <v>7500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
@@ -68635,10 +68635,10 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="Q948" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,20 +68685,20 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K949" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L949" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="M949" t="n">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
@@ -68707,10 +68707,10 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68748,29 +68748,29 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K950" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L950" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M950" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
@@ -68779,10 +68779,10 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K951" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="L951" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="M951" t="n">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="Q951" t="n">
         <v>16</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,20 +68901,20 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K952" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="L952" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M952" t="n">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,10 +68923,10 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="Q952" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,7 +68973,7 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K953" t="n">
         <v>4200</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K954" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L954" t="n">
         <v>5500</v>
       </c>
       <c r="M954" t="n">
-        <v>5400</v>
+        <v>5352</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,12 +69067,444 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q954" t="n">
         <v>16</v>
       </c>
       <c r="R954" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>9</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D955" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E955" t="n">
+        <v>13</v>
+      </c>
+      <c r="F955" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J955" t="n">
+        <v>160</v>
+      </c>
+      <c r="K955" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L955" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M955" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O955" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P955" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>15</v>
+      </c>
+      <c r="R955" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>9</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D956" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E956" t="n">
+        <v>13</v>
+      </c>
+      <c r="F956" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J956" t="n">
+        <v>52</v>
+      </c>
+      <c r="K956" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L956" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M956" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O956" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P956" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>15</v>
+      </c>
+      <c r="R956" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>9</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D957" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E957" t="n">
+        <v>13</v>
+      </c>
+      <c r="F957" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J957" t="n">
+        <v>430</v>
+      </c>
+      <c r="K957" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L957" t="n">
+        <v>5200</v>
+      </c>
+      <c r="M957" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O957" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P957" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>16</v>
+      </c>
+      <c r="R957" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>9</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D958" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E958" t="n">
+        <v>13</v>
+      </c>
+      <c r="F958" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J958" t="n">
+        <v>340</v>
+      </c>
+      <c r="K958" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L958" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M958" t="n">
+        <v>4700</v>
+      </c>
+      <c r="N958" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O958" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P958" t="n">
+        <v>294</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>16</v>
+      </c>
+      <c r="R958" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>9</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D959" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E959" t="n">
+        <v>13</v>
+      </c>
+      <c r="F959" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J959" t="n">
+        <v>210</v>
+      </c>
+      <c r="K959" t="n">
+        <v>4200</v>
+      </c>
+      <c r="L959" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M959" t="n">
+        <v>4200</v>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O959" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P959" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>16</v>
+      </c>
+      <c r="R959" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>9</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D960" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E960" t="n">
+        <v>13</v>
+      </c>
+      <c r="F960" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J960" t="n">
+        <v>160</v>
+      </c>
+      <c r="K960" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L960" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M960" t="n">
+        <v>5400</v>
+      </c>
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O960" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P960" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>16</v>
+      </c>
+      <c r="R960" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R997"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,20 +66309,20 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K916" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="L916" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>8750</v>
+        <v>4850</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
@@ -66331,10 +66331,10 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>486</v>
+        <v>303</v>
       </c>
       <c r="Q916" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,20 +66381,20 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K917" t="n">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="L917" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M917" t="n">
-        <v>7500</v>
+        <v>4350</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
@@ -66403,10 +66403,10 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="Q917" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K918" t="n">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="L918" t="n">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="M918" t="n">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="Q918" t="n">
         <v>16</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K919" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="L919" t="n">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="M919" t="n">
-        <v>4700</v>
+        <v>5299</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Q919" t="n">
         <v>16</v>
@@ -66588,29 +66588,29 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K920" t="n">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="L920" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M920" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,10 +66619,10 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="Q920" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,29 +66660,29 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K921" t="n">
-        <v>5300</v>
+        <v>7500</v>
       </c>
       <c r="L921" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M921" t="n">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
@@ -66691,10 +66691,10 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q921" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="K922" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="M922" t="n">
-        <v>7808</v>
+        <v>5100</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>488</v>
+        <v>319</v>
       </c>
       <c r="Q922" t="n">
         <v>16</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,36 +66809,36 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="K923" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="L923" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="M923" t="n">
-        <v>3192</v>
+        <v>4700</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="Q923" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K924" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="L924" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M924" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="Q924" t="n">
         <v>16</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,36 +66953,36 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="K925" t="n">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="L925" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M925" t="n">
-        <v>2500</v>
+        <v>5400</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="Q925" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67025,24 +67025,24 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>12000</v>
+        <v>650</v>
       </c>
       <c r="K926" t="n">
-        <v>3600</v>
+        <v>7500</v>
       </c>
       <c r="L926" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M926" t="n">
-        <v>3833</v>
+        <v>7808</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>192</v>
+        <v>488</v>
       </c>
       <c r="Q926" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,32 +67101,32 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>650</v>
+        <v>13000</v>
       </c>
       <c r="K927" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L927" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M927" t="n">
-        <v>8500</v>
+        <v>3192</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>531</v>
+        <v>160</v>
       </c>
       <c r="Q927" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,24 +67169,24 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L928" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M928" t="n">
-        <v>2708</v>
+        <v>7000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="Q928" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,32 +67245,32 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="K929" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L929" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M929" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="Q929" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K930" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L930" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M930" t="n">
-        <v>2000</v>
+        <v>3833</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67380,29 +67380,29 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K931" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L931" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M931" t="n">
         <v>8500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="Q931" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>61</v>
+        <v>12000</v>
       </c>
       <c r="K932" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="L932" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M932" t="n">
-        <v>10492</v>
+        <v>2708</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>583</v>
+        <v>135</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,29 +67524,29 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
@@ -67555,10 +67555,10 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,41 +67596,41 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>34</v>
+        <v>8000</v>
       </c>
       <c r="K934" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L934" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M934" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67673,36 +67673,36 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>1330</v>
+        <v>160</v>
       </c>
       <c r="K935" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L935" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M935" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>300</v>
+        <v>567</v>
       </c>
       <c r="Q935" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67745,36 +67745,36 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>610</v>
+        <v>61</v>
       </c>
       <c r="K936" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L936" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M936" t="n">
-        <v>6000</v>
+        <v>10492</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>240</v>
+        <v>583</v>
       </c>
       <c r="Q936" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67812,29 +67812,29 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
@@ -67843,10 +67843,10 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>319</v>
+        <v>467</v>
       </c>
       <c r="Q937" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67884,29 +67884,29 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K938" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L938" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M938" t="n">
-        <v>6495</v>
+        <v>9000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
@@ -67915,10 +67915,10 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="Q938" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,41 +67956,41 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>340</v>
+        <v>1330</v>
       </c>
       <c r="K939" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L939" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M939" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q939" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>61</v>
+        <v>610</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L940" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q940" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="K941" t="n">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="L941" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="M941" t="n">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="Q941" t="n">
         <v>16</v>
@@ -68177,24 +68177,24 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K942" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L942" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M942" t="n">
-        <v>5400</v>
+        <v>6495</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
@@ -68203,10 +68203,10 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="Q942" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K943" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="L943" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="M943" t="n">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="Q943" t="n">
         <v>16</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,20 +68325,20 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K944" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="L944" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M944" t="n">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="Q944" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,7 +68397,7 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="K945" t="n">
         <v>4400</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J947" t="n">
         <v>430</v>
       </c>
       <c r="K947" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L947" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M947" t="n">
-        <v>6650</v>
+        <v>5100</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="Q947" t="n">
         <v>16</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,36 +68609,36 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>2100</v>
+        <v>160</v>
       </c>
       <c r="K948" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="L948" t="n">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="M948" t="n">
-        <v>2650</v>
+        <v>4700</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="Q948" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K949" t="n">
-        <v>6100</v>
+        <v>4400</v>
       </c>
       <c r="L949" t="n">
-        <v>6400</v>
+        <v>4400</v>
       </c>
       <c r="M949" t="n">
-        <v>6250</v>
+        <v>4400</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="Q949" t="n">
         <v>16</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,36 +68753,36 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K950" t="n">
-        <v>2100</v>
+        <v>5300</v>
       </c>
       <c r="L950" t="n">
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="M950" t="n">
-        <v>2250</v>
+        <v>5400</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="Q950" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K951" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L951" t="n">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="M951" t="n">
-        <v>7000</v>
+        <v>6650</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="Q951" t="n">
         <v>16</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K952" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L952" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M952" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K953" t="n">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="L953" t="n">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="M953" t="n">
-        <v>6650</v>
+        <v>6250</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="Q953" t="n">
         <v>16</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,36 +69041,36 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K954" t="n">
-        <v>6000</v>
+        <v>2100</v>
       </c>
       <c r="L954" t="n">
-        <v>6400</v>
+        <v>2400</v>
       </c>
       <c r="M954" t="n">
-        <v>6200</v>
+        <v>2250</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="Q954" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,7 +69113,7 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J955" t="n">
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,36 +69185,36 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K956" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L956" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M956" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>403</v>
+        <v>150</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,32 +69261,32 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>5200</v>
+        <v>610</v>
       </c>
       <c r="K957" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L957" t="n">
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="M957" t="n">
-        <v>3650</v>
+        <v>6650</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="Q957" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,20 +69333,20 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K958" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L958" t="n">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="M958" t="n">
-        <v>6650</v>
+        <v>6200</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
@@ -69355,10 +69355,10 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,36 +69401,36 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>2500</v>
+        <v>340</v>
       </c>
       <c r="K959" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L959" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M959" t="n">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="Q959" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L960" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M960" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K961" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L961" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="M961" t="n">
-        <v>4000</v>
+        <v>3650</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="Q961" t="n">
         <v>20</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,24 +69617,24 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J962" t="n">
         <v>430</v>
       </c>
       <c r="K962" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L962" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="M962" t="n">
-        <v>6250</v>
+        <v>6650</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
@@ -69643,10 +69643,10 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="Q962" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,32 +69693,32 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>340</v>
+        <v>2500</v>
       </c>
       <c r="K963" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L963" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M963" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>344</v>
+        <v>145</v>
       </c>
       <c r="Q963" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,20 +69765,20 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K964" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M964" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q964" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>160</v>
+        <v>3400</v>
       </c>
       <c r="K965" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L965" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M965" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>472</v>
+        <v>200</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,29 +69900,29 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K966" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L966" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M966" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
@@ -69931,10 +69931,10 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K967" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L967" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M967" t="n">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="Q967" t="n">
         <v>16</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K968" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L968" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M968" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="Q968" t="n">
         <v>16</v>
@@ -70116,29 +70116,29 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K969" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="L969" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M969" t="n">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>275</v>
+        <v>472</v>
       </c>
       <c r="Q969" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70188,29 +70188,29 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K970" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="L970" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M970" t="n">
-        <v>5350</v>
+        <v>7000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="Q970" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J971" t="n">
         <v>430</v>
       </c>
       <c r="K971" t="n">
-        <v>6100</v>
+        <v>5000</v>
       </c>
       <c r="L971" t="n">
-        <v>6300</v>
+        <v>5200</v>
       </c>
       <c r="M971" t="n">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="Q971" t="n">
         <v>16</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,36 +70337,36 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>7000</v>
+        <v>340</v>
       </c>
       <c r="K972" t="n">
-        <v>1800</v>
+        <v>4600</v>
       </c>
       <c r="L972" t="n">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="M972" t="n">
-        <v>1800</v>
+        <v>4700</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="Q972" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
         <v>250</v>
       </c>
       <c r="K973" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="L973" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="M973" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="Q973" t="n">
         <v>16</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,36 +70481,36 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>3400</v>
+        <v>160</v>
       </c>
       <c r="K974" t="n">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="L974" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="M974" t="n">
-        <v>1500</v>
+        <v>5350</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="Q974" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K975" t="n">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="L975" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M975" t="n">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="Q975" t="n">
         <v>16</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="K976" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L976" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M976" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q976" t="n">
         <v>20</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70692,29 +70692,29 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K977" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="L977" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M977" t="n">
-        <v>8750</v>
+        <v>5800</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
@@ -70723,10 +70723,10 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>486</v>
+        <v>362</v>
       </c>
       <c r="Q977" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,41 +70764,41 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>70</v>
+        <v>3400</v>
       </c>
       <c r="K978" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="L978" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="M978" t="n">
-        <v>7250</v>
+        <v>1500</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>403</v>
+        <v>75</v>
       </c>
       <c r="Q978" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K979" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L979" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="M979" t="n">
-        <v>5100</v>
+        <v>6500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="Q979" t="n">
         <v>16</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,36 +70913,36 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>250</v>
+        <v>4300</v>
       </c>
       <c r="K980" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="L980" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="M980" t="n">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="Q980" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,29 +70980,29 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
         <v>160</v>
       </c>
       <c r="K981" t="n">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="L981" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M981" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="Q981" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71052,29 +71052,29 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
         <v>70</v>
       </c>
       <c r="K982" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L982" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M982" t="n">
-        <v>5400</v>
+        <v>7250</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="Q982" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,24 +71129,24 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K983" t="n">
-        <v>7200</v>
+        <v>5000</v>
       </c>
       <c r="L983" t="n">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="M983" t="n">
-        <v>7350</v>
+        <v>5100</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
@@ -71155,10 +71155,10 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="Q983" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,36 +71201,36 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>3400</v>
+        <v>250</v>
       </c>
       <c r="K984" t="n">
-        <v>2800</v>
+        <v>4600</v>
       </c>
       <c r="L984" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M984" t="n">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="Q984" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,24 +71273,24 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K985" t="n">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="L985" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M985" t="n">
-        <v>6900</v>
+        <v>4400</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,36 +71345,36 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>2100</v>
+        <v>70</v>
       </c>
       <c r="K986" t="n">
-        <v>2200</v>
+        <v>5300</v>
       </c>
       <c r="L986" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M986" t="n">
-        <v>2350</v>
+        <v>5400</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>118</v>
+        <v>338</v>
       </c>
       <c r="Q986" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K987" t="n">
-        <v>6500</v>
+        <v>7200</v>
       </c>
       <c r="L987" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M987" t="n">
-        <v>6500</v>
+        <v>7350</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="K988" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L988" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M988" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,24 +71561,24 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K989" t="n">
-        <v>5000</v>
+        <v>6800</v>
       </c>
       <c r="L989" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M989" t="n">
-        <v>5100</v>
+        <v>6900</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="Q989" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,36 +71633,36 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>340</v>
+        <v>2100</v>
       </c>
       <c r="K990" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="L990" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="M990" t="n">
-        <v>4700</v>
+        <v>2350</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="Q990" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,24 +71705,24 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J991" t="n">
         <v>250</v>
       </c>
       <c r="K991" t="n">
-        <v>4200</v>
+        <v>6500</v>
       </c>
       <c r="L991" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="M991" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="Q991" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,36 +71777,36 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>133</v>
+        <v>1200</v>
       </c>
       <c r="K992" t="n">
-        <v>5300</v>
+        <v>1800</v>
       </c>
       <c r="L992" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="M992" t="n">
-        <v>5401</v>
+        <v>1800</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="Q992" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71844,29 +71844,29 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K993" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L993" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="M993" t="n">
-        <v>9000</v>
+        <v>5100</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="Q993" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,29 +71916,29 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K994" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L994" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M994" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
@@ -71947,10 +71947,10 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>444</v>
+        <v>294</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K995" t="n">
-        <v>5400</v>
+        <v>4200</v>
       </c>
       <c r="L995" t="n">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="M995" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="Q995" t="n">
         <v>16</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K996" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L996" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M996" t="n">
-        <v>5000</v>
+        <v>5401</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q996" t="n">
         <v>16</v>
@@ -72132,43 +72132,331 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J997" t="n">
         <v>160</v>
       </c>
       <c r="K997" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L997" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M997" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N997" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O997" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P997" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>18</v>
+      </c>
+      <c r="R997" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>9</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E998" t="n">
+        <v>13</v>
+      </c>
+      <c r="F998" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J998" t="n">
+        <v>70</v>
+      </c>
+      <c r="K998" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L998" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M998" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N998" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O998" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P998" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>18</v>
+      </c>
+      <c r="R998" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>9</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D999" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E999" t="n">
+        <v>13</v>
+      </c>
+      <c r="F999" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J999" t="n">
+        <v>340</v>
+      </c>
+      <c r="K999" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L999" t="n">
+        <v>5600</v>
+      </c>
+      <c r="M999" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N999" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O999" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P999" t="n">
+        <v>344</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>16</v>
+      </c>
+      <c r="R999" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1000" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1000" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1000" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1000" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1000" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1000" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1001" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>Extra Cosecha</t>
+        </is>
+      </c>
+      <c r="J1001" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1001" t="n">
         <v>5800</v>
       </c>
-      <c r="L997" t="n">
+      <c r="L1001" t="n">
         <v>5800</v>
       </c>
-      <c r="M997" t="n">
+      <c r="M1001" t="n">
         <v>5800</v>
       </c>
-      <c r="N997" t="inlineStr">
+      <c r="N1001" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="O997" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P997" t="n">
+      <c r="O1001" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1001" t="n">
         <v>362</v>
       </c>
-      <c r="Q997" t="n">
+      <c r="Q1001" t="n">
         <v>16</v>
       </c>
-      <c r="R997" t="inlineStr">
+      <c r="R1001" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1046"/>
+  <dimension ref="A1:R1052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,20 +65877,20 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K910" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L910" t="n">
-        <v>9000</v>
+        <v>4900</v>
       </c>
       <c r="M910" t="n">
-        <v>8750</v>
+        <v>4700</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="Q910" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65940,41 +65940,41 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>97</v>
+        <v>4300</v>
       </c>
       <c r="K911" t="n">
-        <v>10500</v>
+        <v>2200</v>
       </c>
       <c r="L911" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="M911" t="n">
-        <v>10747</v>
+        <v>2350</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>597</v>
+        <v>118</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,20 +66021,20 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K912" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="M912" t="n">
-        <v>7747</v>
+        <v>4200</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>516</v>
+        <v>262</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66084,41 +66084,41 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>52</v>
+        <v>1960</v>
       </c>
       <c r="K913" t="n">
-        <v>9500</v>
+        <v>1800</v>
       </c>
       <c r="L913" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M913" t="n">
-        <v>9750</v>
+        <v>1900</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>542</v>
+        <v>95</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66156,41 +66156,41 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1330</v>
+        <v>196</v>
       </c>
       <c r="K914" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L914" t="n">
-        <v>8000</v>
+        <v>3900</v>
       </c>
       <c r="M914" t="n">
-        <v>7500</v>
+        <v>3700</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="Q914" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66228,41 +66228,41 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K915" t="n">
         <v>5000</v>
       </c>
       <c r="L915" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M915" t="n">
-        <v>5500</v>
+        <v>5150</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="Q915" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,20 +66309,20 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K916" t="n">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="L916" t="n">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="M916" t="n">
-        <v>5150</v>
+        <v>8750</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
@@ -66331,10 +66331,10 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>322</v>
+        <v>583</v>
       </c>
       <c r="Q916" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,20 +66381,20 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K917" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L917" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M917" t="n">
-        <v>6750</v>
+        <v>10747</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
@@ -66403,10 +66403,10 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="Q917" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,20 +66453,20 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K918" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L918" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M918" t="n">
-        <v>4650</v>
+        <v>7747</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
@@ -66475,10 +66475,10 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>291</v>
+        <v>516</v>
       </c>
       <c r="Q918" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,20 +66525,20 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K919" t="n">
-        <v>5900</v>
+        <v>9500</v>
       </c>
       <c r="L919" t="n">
-        <v>6400</v>
+        <v>10000</v>
       </c>
       <c r="M919" t="n">
-        <v>6147</v>
+        <v>9750</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="Q919" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66588,41 +66588,41 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K920" t="n">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="L920" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M920" t="n">
-        <v>4150</v>
+        <v>7500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="Q920" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,41 +66660,41 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>133</v>
+        <v>610</v>
       </c>
       <c r="K921" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L921" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M921" t="n">
         <v>5500</v>
       </c>
-      <c r="L921" t="n">
-        <v>5800</v>
-      </c>
-      <c r="M921" t="n">
-        <v>5651</v>
-      </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="Q921" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K922" t="n">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="L922" t="n">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="M922" t="n">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q922" t="n">
         <v>16</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,24 +66809,24 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K923" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L923" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M923" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q923" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K924" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="L924" t="n">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="M924" t="n">
-        <v>4400</v>
+        <v>4650</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="Q924" t="n">
         <v>16</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,24 +66953,24 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K925" t="n">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="L925" t="n">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="M925" t="n">
-        <v>5400</v>
+        <v>6147</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="Q925" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K926" t="n">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="L926" t="n">
-        <v>6300</v>
+        <v>4400</v>
       </c>
       <c r="M926" t="n">
-        <v>6200</v>
+        <v>4150</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="Q926" t="n">
         <v>16</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K927" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L927" t="n">
         <v>5800</v>
       </c>
       <c r="M927" t="n">
-        <v>5800</v>
+        <v>5651</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="Q927" t="n">
         <v>16</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K928" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="M928" t="n">
-        <v>6500</v>
+        <v>5100</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="Q928" t="n">
         <v>16</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K929" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L929" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M929" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>500</v>
+        <v>294</v>
       </c>
       <c r="Q929" t="n">
         <v>16</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,24 +67313,24 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>670</v>
+        <v>160</v>
       </c>
       <c r="K930" t="n">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="L930" t="n">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="M930" t="n">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
@@ -67339,10 +67339,10 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="Q930" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K931" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L931" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="Q931" t="n">
         <v>16</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,24 +67457,24 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L932" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M932" t="n">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K933" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L933" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M933" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="Q933" t="n">
         <v>16</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K934" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L934" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M934" t="n">
-        <v>4700</v>
+        <v>6500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="Q934" t="n">
         <v>16</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K935" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="L935" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="M935" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="Q935" t="n">
         <v>16</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,24 +67745,24 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>70</v>
+        <v>670</v>
       </c>
       <c r="K936" t="n">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="L936" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M936" t="n">
-        <v>5450</v>
+        <v>8000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
@@ -67771,10 +67771,10 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="Q936" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,24 +67817,24 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="K937" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>2773</v>
+        <v>7000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
@@ -67843,10 +67843,10 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>139</v>
+        <v>438</v>
       </c>
       <c r="Q937" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,32 +67893,32 @@
         </is>
       </c>
       <c r="J938" t="n">
+        <v>350</v>
+      </c>
+      <c r="K938" t="n">
         <v>7000</v>
       </c>
-      <c r="K938" t="n">
-        <v>2000</v>
-      </c>
       <c r="L938" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M938" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q938" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,36 +67961,36 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>9000</v>
+        <v>340</v>
       </c>
       <c r="K939" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L939" t="n">
-        <v>3600</v>
+        <v>5200</v>
       </c>
       <c r="M939" t="n">
-        <v>3556</v>
+        <v>5100</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="Q939" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K940" t="n">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="L940" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M940" t="n">
-        <v>5350</v>
+        <v>4700</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="Q940" t="n">
         <v>16</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K941" t="n">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="L941" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="M941" t="n">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="Q941" t="n">
         <v>16</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K942" t="n">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="L942" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M942" t="n">
-        <v>4500</v>
+        <v>5450</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="Q942" t="n">
         <v>16</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,36 +68249,36 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>70</v>
+        <v>11000</v>
       </c>
       <c r="K943" t="n">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="L943" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="M943" t="n">
-        <v>5800</v>
+        <v>2773</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="Q943" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,36 +68321,36 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>430</v>
+        <v>7000</v>
       </c>
       <c r="K944" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L944" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="M944" t="n">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="Q944" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,36 +68393,36 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>340</v>
+        <v>9000</v>
       </c>
       <c r="K945" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="L945" t="n">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="M945" t="n">
-        <v>4700</v>
+        <v>3556</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="Q945" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K946" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="L946" t="n">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="M946" t="n">
-        <v>4400</v>
+        <v>5350</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="Q946" t="n">
         <v>16</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K947" t="n">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="L947" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M947" t="n">
-        <v>5400</v>
+        <v>4900</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="Q947" t="n">
         <v>16</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K948" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L948" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="M948" t="n">
-        <v>5550</v>
+        <v>4500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="Q948" t="n">
         <v>16</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K949" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="L949" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M949" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q949" t="n">
         <v>16</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K950" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L950" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M950" t="n">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q950" t="n">
         <v>16</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68820,29 +68820,29 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K951" t="n">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="L951" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M951" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>500</v>
+        <v>294</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,24 +68897,24 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K952" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="L952" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M952" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,10 +68923,10 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,36 +68969,36 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>9000</v>
+        <v>160</v>
       </c>
       <c r="K953" t="n">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="L953" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="M953" t="n">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="Q953" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,24 +69041,24 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K954" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L954" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="M954" t="n">
-        <v>6500</v>
+        <v>5550</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
@@ -69067,10 +69067,10 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q954" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,32 +69117,32 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="K955" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="L955" t="n">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="M955" t="n">
-        <v>2769</v>
+        <v>5200</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="Q955" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,24 +69185,24 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K956" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L956" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="M956" t="n">
-        <v>7250</v>
+        <v>5800</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
@@ -69211,10 +69211,10 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69252,41 +69252,41 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>5200</v>
+        <v>350</v>
       </c>
       <c r="K957" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L957" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M957" t="n">
-        <v>3250</v>
+        <v>9000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="Q957" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,36 +69329,36 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K958" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L958" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M958" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q958" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,36 +69401,36 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>340</v>
+        <v>9000</v>
       </c>
       <c r="K959" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="L959" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="M959" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>444</v>
+        <v>180</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,36 +69473,36 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>3400</v>
+        <v>380</v>
       </c>
       <c r="K960" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L960" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M960" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="Q960" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,36 +69545,36 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>340</v>
+        <v>13000</v>
       </c>
       <c r="K961" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="L961" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M961" t="n">
-        <v>4850</v>
+        <v>2769</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="Q961" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,24 +69617,24 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K962" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="L962" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M962" t="n">
-        <v>4350</v>
+        <v>7250</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
@@ -69643,10 +69643,10 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>272</v>
+        <v>403</v>
       </c>
       <c r="Q962" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,36 +69689,36 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>160</v>
+        <v>5200</v>
       </c>
       <c r="K963" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L963" t="n">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="M963" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="Q963" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,36 +69761,36 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>97</v>
+        <v>1600</v>
       </c>
       <c r="K964" t="n">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="L964" t="n">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="M964" t="n">
-        <v>5299</v>
+        <v>3000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="Q964" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K965" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L965" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M965" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>160</v>
+        <v>3400</v>
       </c>
       <c r="K966" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L966" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M966" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K967" t="n">
+        <v>4700</v>
+      </c>
+      <c r="L967" t="n">
         <v>5000</v>
       </c>
-      <c r="L967" t="n">
-        <v>5200</v>
-      </c>
       <c r="M967" t="n">
-        <v>5100</v>
+        <v>4850</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="Q967" t="n">
         <v>16</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70056,13 +70056,13 @@
         <v>250</v>
       </c>
       <c r="K968" t="n">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="L968" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M968" t="n">
-        <v>4700</v>
+        <v>4350</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="Q968" t="n">
         <v>16</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70128,13 +70128,13 @@
         <v>160</v>
       </c>
       <c r="K969" t="n">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="L969" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="M969" t="n">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="Q969" t="n">
         <v>16</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K970" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L970" t="n">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="M970" t="n">
-        <v>5400</v>
+        <v>5299</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q970" t="n">
         <v>16</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70260,41 +70260,41 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K971" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L971" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M971" t="n">
-        <v>7808</v>
+        <v>8750</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Q971" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="K972" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L972" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M972" t="n">
-        <v>3192</v>
+        <v>7500</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>160</v>
+        <v>417</v>
       </c>
       <c r="Q972" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K973" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L973" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M973" t="n">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="Q973" t="n">
         <v>16</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,36 +70481,36 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="K974" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="L974" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="M974" t="n">
-        <v>2500</v>
+        <v>4700</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="Q974" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,36 +70553,36 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K975" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="L975" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="M975" t="n">
-        <v>3833</v>
+        <v>4400</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="Q975" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="K976" t="n">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="L976" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M976" t="n">
-        <v>8500</v>
+        <v>5400</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>531</v>
+        <v>338</v>
       </c>
       <c r="Q976" t="n">
         <v>16</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,20 +70701,20 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>12000</v>
+        <v>650</v>
       </c>
       <c r="K977" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L977" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M977" t="n">
-        <v>2708</v>
+        <v>7808</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
@@ -70723,10 +70723,10 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>135</v>
+        <v>488</v>
       </c>
       <c r="Q977" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,36 +70769,36 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K978" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L978" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M978" t="n">
-        <v>8000</v>
+        <v>3192</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="Q978" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,20 +70845,20 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K979" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M979" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
@@ -70867,10 +70867,10 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="Q979" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,41 +70908,41 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K980" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L980" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="M980" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>567</v>
+        <v>125</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>61</v>
+        <v>12000</v>
       </c>
       <c r="K981" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="L981" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M981" t="n">
-        <v>10492</v>
+        <v>3833</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>583</v>
+        <v>192</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,29 +71052,29 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="K982" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L982" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M982" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="Q982" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71124,41 +71124,41 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>34</v>
+        <v>12000</v>
       </c>
       <c r="K983" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="L983" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M983" t="n">
-        <v>9000</v>
+        <v>2708</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="Q983" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,41 +71196,41 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1330</v>
+        <v>300</v>
       </c>
       <c r="K984" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L984" t="n">
         <v>8000</v>
       </c>
       <c r="M984" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q984" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,41 +71268,41 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>610</v>
+        <v>8000</v>
       </c>
       <c r="K985" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L985" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M985" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="Q985" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,20 +71349,20 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K986" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L986" t="n">
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="M986" t="n">
-        <v>5100</v>
+        <v>8500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="Q986" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,20 +71421,20 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="K987" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L987" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M987" t="n">
-        <v>6495</v>
+        <v>10492</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
@@ -71443,10 +71443,10 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="Q987" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,20 +71493,20 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K988" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L988" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M988" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
@@ -71515,10 +71515,10 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>294</v>
+        <v>467</v>
       </c>
       <c r="Q988" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,20 +71565,20 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K989" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L989" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M989" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q989" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>133</v>
+        <v>1330</v>
       </c>
       <c r="K990" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="L990" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M990" t="n">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q990" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K991" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L991" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M991" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="Q991" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,24 +71849,24 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K993" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="L993" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M993" t="n">
-        <v>4700</v>
+        <v>6495</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Q993" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K994" t="n">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="L994" t="n">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="M994" t="n">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="Q994" t="n">
         <v>16</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,24 +71993,24 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K995" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L995" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M995" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="Q995" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>430</v>
+        <v>133</v>
       </c>
       <c r="K996" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="L996" t="n">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="M996" t="n">
-        <v>6650</v>
+        <v>4400</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="Q996" t="n">
         <v>16</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,36 +72137,36 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2100</v>
+        <v>160</v>
       </c>
       <c r="K997" t="n">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="L997" t="n">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="M997" t="n">
-        <v>2650</v>
+        <v>5400</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="Q997" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K998" t="n">
-        <v>6100</v>
+        <v>5000</v>
       </c>
       <c r="L998" t="n">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="M998" t="n">
-        <v>6250</v>
+        <v>5100</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="Q998" t="n">
         <v>16</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,36 +72281,36 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K999" t="n">
-        <v>2100</v>
+        <v>4600</v>
       </c>
       <c r="L999" t="n">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="M999" t="n">
-        <v>2250</v>
+        <v>4700</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="Q999" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K1000" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="L1000" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M1000" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="Q1000" t="n">
         <v>16</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,36 +72425,36 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K1001" t="n">
-        <v>3000</v>
+        <v>5300</v>
       </c>
       <c r="L1001" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1001" t="n">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,11 +72497,11 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K1002" t="n">
         <v>6500</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,36 +72569,36 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="K1003" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L1003" t="n">
-        <v>6400</v>
+        <v>2800</v>
       </c>
       <c r="M1003" t="n">
-        <v>6200</v>
+        <v>2650</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>388</v>
+        <v>132</v>
       </c>
       <c r="Q1003" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1004" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="M1004" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="Q1004" t="n">
         <v>16</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,36 +72713,36 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K1005" t="n">
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="L1005" t="n">
-        <v>7500</v>
+        <v>2400</v>
       </c>
       <c r="M1005" t="n">
-        <v>7250</v>
+        <v>2250</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>403</v>
+        <v>112</v>
       </c>
       <c r="Q1005" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,36 +72785,36 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>5200</v>
+        <v>340</v>
       </c>
       <c r="K1006" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1006" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="M1006" t="n">
-        <v>3650</v>
+        <v>7000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="Q1006" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,36 +72857,36 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K1007" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L1007" t="n">
-        <v>6800</v>
+        <v>3000</v>
       </c>
       <c r="M1007" t="n">
-        <v>6650</v>
+        <v>3000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="Q1007" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,36 +72929,36 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K1008" t="n">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="L1008" t="n">
-        <v>3000</v>
+        <v>6800</v>
       </c>
       <c r="M1008" t="n">
-        <v>2900</v>
+        <v>6650</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>145</v>
+        <v>416</v>
       </c>
       <c r="Q1008" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,24 +73001,24 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1009" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1009" t="n">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="M1009" t="n">
-        <v>8000</v>
+        <v>6200</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,32 +73077,32 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>3400</v>
+        <v>340</v>
       </c>
       <c r="K1010" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1010" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1010" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>200</v>
+        <v>438</v>
       </c>
       <c r="Q1010" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,20 +73149,20 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K1011" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1011" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1011" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q1011" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,36 +73217,36 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>340</v>
+        <v>5200</v>
       </c>
       <c r="K1012" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1012" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="M1012" t="n">
-        <v>5500</v>
+        <v>3650</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>344</v>
+        <v>182</v>
       </c>
       <c r="Q1012" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,24 +73289,24 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K1013" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1013" t="n">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="M1013" t="n">
-        <v>7000</v>
+        <v>6650</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="Q1013" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73356,41 +73356,41 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>160</v>
+        <v>2500</v>
       </c>
       <c r="K1014" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="L1014" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M1014" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>472</v>
+        <v>145</v>
       </c>
       <c r="Q1014" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K1015" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1015" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1015" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,36 +73505,36 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>430</v>
+        <v>3400</v>
       </c>
       <c r="K1016" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1016" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5100</v>
+        <v>4000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="Q1016" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1017" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="L1017" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M1017" t="n">
-        <v>4700</v>
+        <v>6250</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="Q1017" t="n">
         <v>16</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1018" t="n">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="L1018" t="n">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="M1018" t="n">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="Q1018" t="n">
         <v>16</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1019" t="n">
         <v>160</v>
       </c>
       <c r="K1019" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="L1019" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1019" t="n">
-        <v>5350</v>
+        <v>7000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="Q1019" t="n">
         <v>16</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73788,29 +73788,29 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1020" t="n">
-        <v>6100</v>
+        <v>8000</v>
       </c>
       <c r="L1020" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="M1020" t="n">
-        <v>6200</v>
+        <v>8500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
@@ -73819,10 +73819,10 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="Q1020" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1021" t="n">
         <v>7000</v>
       </c>
-      <c r="K1021" t="n">
-        <v>1800</v>
-      </c>
       <c r="L1021" t="n">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="M1021" t="n">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="Q1021" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1022" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L1022" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M1022" t="n">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q1022" t="n">
         <v>16</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,36 +74009,36 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>3400</v>
+        <v>340</v>
       </c>
       <c r="K1023" t="n">
-        <v>1500</v>
+        <v>4600</v>
       </c>
       <c r="L1023" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="M1023" t="n">
-        <v>1500</v>
+        <v>4700</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="Q1023" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
         <v>250</v>
       </c>
       <c r="K1024" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="L1024" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M1024" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="Q1024" t="n">
         <v>16</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,36 +74153,36 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>4300</v>
+        <v>160</v>
       </c>
       <c r="K1025" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="L1025" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="M1025" t="n">
-        <v>2200</v>
+        <v>5350</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="Q1025" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74220,29 +74220,29 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K1026" t="n">
-        <v>8500</v>
+        <v>6100</v>
       </c>
       <c r="L1026" t="n">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="M1026" t="n">
-        <v>8750</v>
+        <v>6200</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
@@ -74251,10 +74251,10 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74292,41 +74292,41 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>70</v>
+        <v>7000</v>
       </c>
       <c r="K1027" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L1027" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="M1027" t="n">
-        <v>7250</v>
+        <v>1800</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>403</v>
+        <v>90</v>
       </c>
       <c r="Q1027" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1028" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L1028" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M1028" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="Q1028" t="n">
         <v>16</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,36 +74441,36 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>250</v>
+        <v>3400</v>
       </c>
       <c r="K1029" t="n">
-        <v>4600</v>
+        <v>1500</v>
       </c>
       <c r="L1029" t="n">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="M1029" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="Q1029" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1030" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="L1030" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="M1030" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>275</v>
+        <v>406</v>
       </c>
       <c r="Q1030" t="n">
         <v>16</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,36 +74585,36 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="K1031" t="n">
-        <v>5300</v>
+        <v>2200</v>
       </c>
       <c r="L1031" t="n">
-        <v>5500</v>
+        <v>2200</v>
       </c>
       <c r="M1031" t="n">
-        <v>5400</v>
+        <v>2200</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="Q1031" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74652,25 +74652,25 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K1032" t="n">
-        <v>7200</v>
+        <v>8500</v>
       </c>
       <c r="L1032" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1032" t="n">
-        <v>7350</v>
+        <v>8750</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,41 +74724,41 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>3400</v>
+        <v>70</v>
       </c>
       <c r="K1033" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L1033" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M1033" t="n">
-        <v>2900</v>
+        <v>7250</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="Q1033" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,24 +74801,24 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K1034" t="n">
-        <v>6800</v>
+        <v>5000</v>
       </c>
       <c r="L1034" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M1034" t="n">
-        <v>6900</v>
+        <v>5100</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="Q1034" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,36 +74873,36 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1035" t="n">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="L1035" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="M1035" t="n">
-        <v>2350</v>
+        <v>4700</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="Q1035" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,24 +74945,24 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1036" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="L1036" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M1036" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
@@ -74971,10 +74971,10 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="Q1036" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,36 +75017,36 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1200</v>
+        <v>70</v>
       </c>
       <c r="K1037" t="n">
-        <v>1800</v>
+        <v>5300</v>
       </c>
       <c r="L1037" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="M1037" t="n">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="Q1037" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,24 +75089,24 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K1038" t="n">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="L1038" t="n">
-        <v>5200</v>
+        <v>7500</v>
       </c>
       <c r="M1038" t="n">
-        <v>5100</v>
+        <v>7350</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
@@ -75115,10 +75115,10 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="Q1038" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,36 +75161,36 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="K1039" t="n">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="L1039" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M1039" t="n">
-        <v>4700</v>
+        <v>2900</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="Q1039" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,24 +75233,24 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K1040" t="n">
-        <v>4200</v>
+        <v>6800</v>
       </c>
       <c r="L1040" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="M1040" t="n">
-        <v>4300</v>
+        <v>6900</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
@@ -75259,10 +75259,10 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>269</v>
+        <v>383</v>
       </c>
       <c r="Q1040" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,36 +75305,36 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>133</v>
+        <v>2100</v>
       </c>
       <c r="K1041" t="n">
-        <v>5300</v>
+        <v>2200</v>
       </c>
       <c r="L1041" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M1041" t="n">
-        <v>5401</v>
+        <v>2350</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="Q1041" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,25 +75372,25 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1042" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L1042" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1042" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,41 +75444,41 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>70</v>
+        <v>1200</v>
       </c>
       <c r="K1043" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L1043" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="M1043" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="Q1043" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1044" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="L1044" t="n">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="M1044" t="n">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="Q1044" t="n">
         <v>16</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1045" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="L1045" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M1045" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="Q1045" t="n">
         <v>16</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1046" t="n">
-        <v>5800</v>
+        <v>4200</v>
       </c>
       <c r="L1046" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="M1046" t="n">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,12 +75691,444 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="Q1046" t="n">
         <v>16</v>
       </c>
       <c r="R1046" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1047" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1047" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>5401</v>
+      </c>
+      <c r="N1047" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1047" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1047" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1047" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1048" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1048" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N1048" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1048" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1048" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1048" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1049" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1049" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1049" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1049" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1049" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1049" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1050" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1050" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1050" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>5600</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1050" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1050" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1050" t="n">
+        <v>344</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1050" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1051" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1051" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1051" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1051" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1051" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1051" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1052" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>Extra Cosecha</t>
+        </is>
+      </c>
+      <c r="J1052" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>5800</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N1052" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1052" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1052" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1052" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1058"/>
+  <dimension ref="A1:R1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K879" t="n">
         <v>4400</v>
       </c>
       <c r="L879" t="n">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="M879" t="n">
-        <v>4550</v>
+        <v>4600</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q879" t="n">
         <v>16</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>790</v>
+        <v>5000</v>
       </c>
       <c r="K880" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L880" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M880" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63789,7 +63789,7 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K881" t="n">
         <v>3900</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>430</v>
+        <v>1040</v>
       </c>
       <c r="K882" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L882" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M882" t="n">
-        <v>2500</v>
+        <v>1850</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="K884" t="n">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="L884" t="n">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="M884" t="n">
-        <v>4997</v>
+        <v>5100</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q884" t="n">
         <v>16</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,20 +64077,20 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K885" t="n">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="L885" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="M885" t="n">
-        <v>8500</v>
+        <v>4550</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
@@ -64099,10 +64099,10 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>567</v>
+        <v>284</v>
       </c>
       <c r="Q885" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64140,41 +64140,41 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>160</v>
+        <v>790</v>
       </c>
       <c r="K886" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L886" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M886" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>467</v>
+        <v>150</v>
       </c>
       <c r="Q886" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K887" t="n">
-        <v>5000</v>
+        <v>3900</v>
       </c>
       <c r="L887" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="M887" t="n">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="Q887" t="n">
         <v>16</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,36 +64289,36 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K888" t="n">
-        <v>4600</v>
+        <v>2500</v>
       </c>
       <c r="L888" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="M888" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="Q888" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K889" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="L889" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="M889" t="n">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q889" t="n">
         <v>16</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K890" t="n">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="L890" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M890" t="n">
-        <v>5400</v>
+        <v>4997</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="Q890" t="n">
         <v>16</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,20 +64509,20 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K891" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L891" t="n">
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="M891" t="n">
-        <v>5100</v>
+        <v>8500</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
@@ -64531,10 +64531,10 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="Q891" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,20 +64581,20 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K892" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L892" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M892" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,10 +64603,10 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>294</v>
+        <v>467</v>
       </c>
       <c r="Q892" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K893" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="L893" t="n">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="M893" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="Q893" t="n">
         <v>16</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K894" t="n">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="L894" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M894" t="n">
-        <v>5399</v>
+        <v>4700</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="Q894" t="n">
         <v>16</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64788,41 +64788,41 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K895" t="n">
-        <v>10000</v>
+        <v>4400</v>
       </c>
       <c r="L895" t="n">
-        <v>10000</v>
+        <v>4400</v>
       </c>
       <c r="M895" t="n">
-        <v>10000</v>
+        <v>4400</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="Q895" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64860,41 +64860,41 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K896" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="L896" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M896" t="n">
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="Q896" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K897" t="n">
-        <v>6800</v>
+        <v>5000</v>
       </c>
       <c r="L897" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M897" t="n">
-        <v>6800</v>
+        <v>5100</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="Q897" t="n">
         <v>16</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J898" t="n">
         <v>250</v>
       </c>
       <c r="K898" t="n">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="L898" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M898" t="n">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="Q898" t="n">
         <v>16</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K899" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="L899" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="M899" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q899" t="n">
         <v>16</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K900" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L900" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M900" t="n">
-        <v>5100</v>
+        <v>5399</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q900" t="n">
         <v>16</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K901" t="n">
-        <v>4600</v>
+        <v>10000</v>
       </c>
       <c r="L901" t="n">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="M901" t="n">
-        <v>4700</v>
+        <v>10000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="Q901" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65292,41 +65292,41 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K902" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="L902" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M902" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="Q902" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K903" t="n">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="L903" t="n">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="M903" t="n">
-        <v>5400</v>
+        <v>6800</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="Q903" t="n">
         <v>16</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K904" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L904" t="n">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="M904" t="n">
-        <v>5550</v>
+        <v>6500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="Q904" t="n">
         <v>16</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K905" t="n">
-        <v>5200</v>
+        <v>7200</v>
       </c>
       <c r="L905" t="n">
-        <v>5200</v>
+        <v>7200</v>
       </c>
       <c r="M905" t="n">
-        <v>5200</v>
+        <v>7200</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q905" t="n">
         <v>16</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K906" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M906" t="n">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q906" t="n">
         <v>16</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65652,29 +65652,29 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K907" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L907" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M907" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>472</v>
+        <v>294</v>
       </c>
       <c r="Q907" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65724,29 +65724,29 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K908" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="L908" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M908" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
@@ -65755,10 +65755,10 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K909" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L909" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M909" t="n">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="Q909" t="n">
         <v>16</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K910" t="n">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="L910" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="M910" t="n">
-        <v>4700</v>
+        <v>5550</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="Q910" t="n">
         <v>16</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K911" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="L911" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="M911" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="Q911" t="n">
         <v>16</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K912" t="n">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="L912" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="M912" t="n">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q912" t="n">
         <v>16</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K913" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L913" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M913" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,36 +66161,36 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1600</v>
+        <v>70</v>
       </c>
       <c r="K914" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L914" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M914" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="Q914" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,36 +66233,36 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J915" t="n">
         <v>430</v>
       </c>
       <c r="K915" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L915" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="M915" t="n">
-        <v>8500</v>
+        <v>5100</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>567</v>
+        <v>319</v>
       </c>
       <c r="Q915" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K916" t="n">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="L916" t="n">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="M916" t="n">
-        <v>5700</v>
+        <v>4700</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="Q916" t="n">
         <v>16</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,24 +66377,24 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K917" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="L917" t="n">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M917" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
@@ -66403,10 +66403,10 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="Q917" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,7 +66449,7 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J918" t="n">
@@ -66459,10 +66459,10 @@
         <v>5300</v>
       </c>
       <c r="L918" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="M918" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q918" t="n">
         <v>16</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66516,41 +66516,41 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K919" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M919" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q919" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,36 +66593,36 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K920" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L920" t="n">
         <v>9000</v>
       </c>
       <c r="M920" t="n">
-        <v>8750</v>
+        <v>9000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="Q920" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66660,41 +66660,41 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K921" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L921" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M921" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q921" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J922" t="n">
         <v>430</v>
       </c>
       <c r="K922" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="L922" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M922" t="n">
-        <v>5100</v>
+        <v>5700</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q922" t="n">
         <v>16</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,24 +66809,24 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K923" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L923" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M923" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q923" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>160</v>
       </c>
       <c r="K924" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="L924" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="M924" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="Q924" t="n">
         <v>16</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K925" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L925" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q925" t="n">
         <v>16</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,20 +67029,20 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K926" t="n">
-        <v>5400</v>
+        <v>8500</v>
       </c>
       <c r="L926" t="n">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="M926" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>344</v>
+        <v>486</v>
       </c>
       <c r="Q926" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67104,17 +67104,17 @@
         <v>160</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M927" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
@@ -67123,10 +67123,10 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q927" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K928" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M928" t="n">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q928" t="n">
         <v>16</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K929" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="L929" t="n">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="M929" t="n">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="Q929" t="n">
         <v>16</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K930" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="L930" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="M930" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="Q930" t="n">
         <v>16</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J931" t="n">
         <v>70</v>
       </c>
       <c r="K931" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="L931" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q931" t="n">
         <v>16</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,24 +67457,24 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="L932" t="n">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="M932" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,24 +67529,24 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K933" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L933" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M933" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
@@ -67555,10 +67555,10 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,41 +67596,41 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K934" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="L934" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="M934" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="Q934" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67668,41 +67668,41 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K935" t="n">
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="L935" t="n">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="M935" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q935" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K936" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L936" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="M936" t="n">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="Q936" t="n">
         <v>16</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,24 +67817,24 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K937" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L937" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M937" t="n">
-        <v>6750</v>
+        <v>5800</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
@@ -67843,10 +67843,10 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q937" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,24 +67889,24 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K938" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L938" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="M938" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
@@ -67915,10 +67915,10 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="Q938" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,24 +67961,24 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L939" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M939" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
@@ -67987,10 +67987,10 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q939" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L940" t="n">
-        <v>5200</v>
+        <v>10000</v>
       </c>
       <c r="M940" t="n">
-        <v>5100</v>
+        <v>10000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="Q940" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K941" t="n">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="L941" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M941" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="Q941" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K942" t="n">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="L942" t="n">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="M942" t="n">
-        <v>4200</v>
+        <v>5700</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="Q942" t="n">
         <v>16</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,24 +68249,24 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K943" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="L943" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M943" t="n">
-        <v>5348</v>
+        <v>6750</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
@@ -68275,10 +68275,10 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q943" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68316,29 +68316,29 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J944" t="n">
         <v>160</v>
       </c>
       <c r="K944" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="L944" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="M944" t="n">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>567</v>
+        <v>331</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68388,29 +68388,29 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K945" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L945" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M945" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
@@ -68419,10 +68419,10 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,7 +68469,7 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K946" t="n">
         <v>5000</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,7 +68541,7 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K947" t="n">
         <v>4600</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,7 +68613,7 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K948" t="n">
         <v>4200</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K949" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L949" t="n">
         <v>5500</v>
       </c>
       <c r="M949" t="n">
-        <v>5400</v>
+        <v>5348</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q949" t="n">
         <v>16</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,20 +68757,20 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K950" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L950" t="n">
         <v>9000</v>
       </c>
       <c r="M950" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
@@ -68779,10 +68779,10 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,20 +68829,20 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K951" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L951" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M951" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,29 +68892,29 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K952" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L952" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M952" t="n">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,10 +68923,10 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68964,41 +68964,41 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>1410</v>
+        <v>340</v>
       </c>
       <c r="K953" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L953" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M953" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="Q953" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69036,41 +69036,41 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K954" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="L954" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="M954" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Q954" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,11 +69113,11 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K955" t="n">
         <v>5300</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,20 +69189,20 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K956" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L956" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M956" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
@@ -69211,10 +69211,10 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q956" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,20 +69261,20 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K957" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L957" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M957" t="n">
-        <v>5100</v>
+        <v>8000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
@@ -69283,10 +69283,10 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="Q957" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69324,29 +69324,29 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J958" t="n">
         <v>70</v>
       </c>
       <c r="K958" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L958" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M958" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
@@ -69355,10 +69355,10 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Q958" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>210</v>
+        <v>1410</v>
       </c>
       <c r="K959" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="L959" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="M959" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="Q959" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K960" t="n">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="L960" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M960" t="n">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="Q960" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,21 +69545,21 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K961" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L961" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M961" t="n">
         <v>5400</v>
       </c>
-      <c r="L961" t="n">
-        <v>5600</v>
-      </c>
-      <c r="M961" t="n">
-        <v>5500</v>
-      </c>
       <c r="N961" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q961" t="n">
         <v>16</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K962" t="n">
         <v>7000</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J963" t="n">
         <v>250</v>
       </c>
       <c r="K963" t="n">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="L963" t="n">
         <v>5200</v>
       </c>
       <c r="M963" t="n">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q963" t="n">
         <v>16</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,24 +69761,24 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K964" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L964" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M964" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="Q964" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,29 +69828,29 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K965" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="L965" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="M965" t="n">
-        <v>8750</v>
+        <v>4700</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
@@ -69859,10 +69859,10 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,29 +69900,29 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K966" t="n">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="L966" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="M966" t="n">
-        <v>10750</v>
+        <v>5700</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
@@ -69931,10 +69931,10 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>597</v>
+        <v>356</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,29 +69972,29 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K967" t="n">
-        <v>7500</v>
+        <v>5400</v>
       </c>
       <c r="L967" t="n">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="M967" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
@@ -70003,10 +70003,10 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,29 +70044,29 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K968" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L968" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M968" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>556</v>
+        <v>350</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K969" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="L969" t="n">
         <v>5200</v>
       </c>
       <c r="M969" t="n">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q969" t="n">
         <v>16</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,24 +70193,24 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J970" t="n">
         <v>160</v>
       </c>
       <c r="K970" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L970" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M970" t="n">
-        <v>6750</v>
+        <v>5800</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q970" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,29 +70260,29 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K971" t="n">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="L971" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M971" t="n">
-        <v>4700</v>
+        <v>8750</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
@@ -70291,10 +70291,10 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="Q971" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70332,29 +70332,29 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
         <v>70</v>
       </c>
       <c r="K972" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L972" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M972" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
@@ -70363,10 +70363,10 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>288</v>
+        <v>597</v>
       </c>
       <c r="Q972" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,29 +70404,29 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K973" t="n">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="L973" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M973" t="n">
-        <v>4400</v>
+        <v>7750</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
@@ -70435,10 +70435,10 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="Q973" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70476,29 +70476,29 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K974" t="n">
-        <v>5300</v>
+        <v>10000</v>
       </c>
       <c r="L974" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M974" t="n">
-        <v>5401</v>
+        <v>10000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
@@ -70507,10 +70507,10 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>338</v>
+        <v>556</v>
       </c>
       <c r="Q974" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,24 +70625,24 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K976" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L976" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M976" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
@@ -70651,10 +70651,10 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q976" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J977" t="n">
         <v>250</v>
       </c>
       <c r="K977" t="n">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="L977" t="n">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="M977" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="Q977" t="n">
         <v>16</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,24 +70769,24 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K978" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L978" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>5401</v>
+        <v>5750</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
@@ -70795,10 +70795,10 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="Q978" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K979" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="L979" t="n">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="M979" t="n">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="Q979" t="n">
         <v>16</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K980" t="n">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="L980" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M980" t="n">
-        <v>4700</v>
+        <v>5401</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q980" t="n">
         <v>16</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K981" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="L981" t="n">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="M981" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="Q981" t="n">
         <v>16</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K982" t="n">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="L982" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M982" t="n">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="Q982" t="n">
         <v>16</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,24 +71129,24 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K983" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="L983" t="n">
-        <v>7500</v>
+        <v>4400</v>
       </c>
       <c r="M983" t="n">
-        <v>7308</v>
+        <v>4300</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
@@ -71155,10 +71155,10 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="Q983" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,36 +71201,36 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>9000</v>
+        <v>133</v>
       </c>
       <c r="K984" t="n">
-        <v>2600</v>
+        <v>5300</v>
       </c>
       <c r="L984" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M984" t="n">
-        <v>2822</v>
+        <v>5401</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="Q984" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,24 +71273,24 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="K985" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M985" t="n">
-        <v>6714</v>
+        <v>5100</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,36 +71345,36 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>5000</v>
+        <v>340</v>
       </c>
       <c r="K986" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="L986" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M986" t="n">
-        <v>2000</v>
+        <v>4700</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="Q986" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1240</v>
+        <v>210</v>
       </c>
       <c r="K987" t="n">
-        <v>12000</v>
+        <v>4200</v>
       </c>
       <c r="L987" t="n">
-        <v>13000</v>
+        <v>4200</v>
       </c>
       <c r="M987" t="n">
-        <v>12500</v>
+        <v>4200</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="Q987" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K988" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="L988" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M988" t="n">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="Q988" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,24 +71561,24 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="K989" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L989" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="M989" t="n">
-        <v>4500</v>
+        <v>7308</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>281</v>
+        <v>406</v>
       </c>
       <c r="Q989" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,36 +71633,36 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="K990" t="n">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="L990" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="M990" t="n">
-        <v>3950</v>
+        <v>2822</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="Q990" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,24 +71705,24 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K991" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L991" t="n">
-        <v>3600</v>
+        <v>7000</v>
       </c>
       <c r="M991" t="n">
-        <v>3400</v>
+        <v>6714</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="Q991" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,36 +71777,36 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>106</v>
+        <v>5000</v>
       </c>
       <c r="K992" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L992" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="M992" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q992" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1600</v>
+        <v>1240</v>
       </c>
       <c r="K993" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L993" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M993" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="Q993" t="n">
         <v>25</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="K994" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L994" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M994" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q994" t="n">
         <v>25</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
         <v>340</v>
       </c>
       <c r="K995" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="L995" t="n">
-        <v>6400</v>
+        <v>4700</v>
       </c>
       <c r="M995" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="Q995" t="n">
         <v>16</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
         <v>250</v>
       </c>
       <c r="K996" t="n">
-        <v>5800</v>
+        <v>3700</v>
       </c>
       <c r="L996" t="n">
-        <v>5800</v>
+        <v>4200</v>
       </c>
       <c r="M996" t="n">
-        <v>5800</v>
+        <v>3950</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="Q996" t="n">
         <v>16</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
         <v>160</v>
       </c>
       <c r="K997" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="L997" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="M997" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="Q997" t="n">
         <v>16</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K998" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L998" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M998" t="n">
-        <v>6650</v>
+        <v>5000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="Q998" t="n">
         <v>16</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72276,41 +72276,41 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
         <v>1600</v>
       </c>
       <c r="K999" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="L999" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="M999" t="n">
-        <v>2650</v>
+        <v>11000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="Q999" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72348,41 +72348,41 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1000" t="n">
-        <v>6100</v>
+        <v>9000</v>
       </c>
       <c r="L1000" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="M1000" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="Q1000" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,36 +72425,36 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K1001" t="n">
-        <v>2100</v>
+        <v>6200</v>
       </c>
       <c r="L1001" t="n">
-        <v>2400</v>
+        <v>6400</v>
       </c>
       <c r="M1001" t="n">
-        <v>2250</v>
+        <v>6300</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1002" t="n">
         <v>250</v>
       </c>
       <c r="K1002" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L1002" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1002" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="Q1002" t="n">
         <v>16</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,36 +72569,36 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K1003" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1003" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M1003" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>150</v>
+        <v>406</v>
       </c>
       <c r="Q1003" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,29 +72636,29 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K1004" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L1004" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="M1004" t="n">
-        <v>8750</v>
+        <v>6650</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>583</v>
+        <v>416</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,41 +72708,41 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>97</v>
+        <v>1600</v>
       </c>
       <c r="K1005" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L1005" t="n">
-        <v>11000</v>
+        <v>2800</v>
       </c>
       <c r="M1005" t="n">
-        <v>10747</v>
+        <v>2650</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="Q1005" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72780,29 +72780,29 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1006" t="n">
-        <v>7500</v>
+        <v>6100</v>
       </c>
       <c r="L1006" t="n">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="M1006" t="n">
-        <v>7747</v>
+        <v>6250</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>516</v>
+        <v>391</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="K1007" t="n">
-        <v>9500</v>
+        <v>2100</v>
       </c>
       <c r="L1007" t="n">
-        <v>10000</v>
+        <v>2400</v>
       </c>
       <c r="M1007" t="n">
-        <v>9750</v>
+        <v>2250</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>542</v>
+        <v>112</v>
       </c>
       <c r="Q1007" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>1330</v>
+        <v>250</v>
       </c>
       <c r="K1008" t="n">
         <v>7000</v>
       </c>
       <c r="L1008" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1008" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="Q1008" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -72996,41 +72996,41 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K1009" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1009" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1009" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q1009" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,20 +73077,20 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K1010" t="n">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="L1010" t="n">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="M1010" t="n">
-        <v>5150</v>
+        <v>8750</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>322</v>
+        <v>583</v>
       </c>
       <c r="Q1010" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,20 +73149,20 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1011" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L1011" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M1011" t="n">
-        <v>6750</v>
+        <v>10747</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="Q1011" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,20 +73221,20 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1012" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L1012" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M1012" t="n">
-        <v>4650</v>
+        <v>7747</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
@@ -73243,10 +73243,10 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>291</v>
+        <v>516</v>
       </c>
       <c r="Q1012" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,20 +73293,20 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K1013" t="n">
-        <v>5900</v>
+        <v>9500</v>
       </c>
       <c r="L1013" t="n">
-        <v>6400</v>
+        <v>10000</v>
       </c>
       <c r="M1013" t="n">
-        <v>6147</v>
+        <v>9750</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="Q1013" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73356,41 +73356,41 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K1014" t="n">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="L1014" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M1014" t="n">
-        <v>4150</v>
+        <v>7500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="Q1014" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73428,41 +73428,41 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>133</v>
+        <v>610</v>
       </c>
       <c r="K1015" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1015" t="n">
         <v>5500</v>
       </c>
-      <c r="L1015" t="n">
-        <v>5800</v>
-      </c>
-      <c r="M1015" t="n">
-        <v>5651</v>
-      </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="Q1015" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K1016" t="n">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="L1016" t="n">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="M1016" t="n">
-        <v>8000</v>
+        <v>5150</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="Q1016" t="n">
         <v>16</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,36 +73577,36 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K1017" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1017" t="n">
         <v>7000</v>
       </c>
       <c r="M1017" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="Q1017" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,36 +73649,36 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K1018" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L1018" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M1018" t="n">
-        <v>9000</v>
+        <v>4650</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,24 +73721,24 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K1019" t="n">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="L1019" t="n">
-        <v>5000</v>
+        <v>6400</v>
       </c>
       <c r="M1019" t="n">
-        <v>4850</v>
+        <v>6147</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q1019" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1020" t="n">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="L1020" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="M1020" t="n">
-        <v>4350</v>
+        <v>4150</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Q1020" t="n">
         <v>16</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K1021" t="n">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="L1021" t="n">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="M1021" t="n">
-        <v>3900</v>
+        <v>5651</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="Q1021" t="n">
         <v>16</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>97</v>
+        <v>650</v>
       </c>
       <c r="K1022" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="L1022" t="n">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>5299</v>
+        <v>8000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>331</v>
+        <v>500</v>
       </c>
       <c r="Q1022" t="n">
         <v>16</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74004,41 +74004,41 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1023" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1023" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1023" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="Q1023" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,29 +74076,29 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K1024" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1024" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1024" t="n">
-        <v>7727</v>
+        <v>9000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>309</v>
+        <v>500</v>
       </c>
       <c r="Q1024" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,36 +74153,36 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="K1025" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="L1025" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1025" t="n">
-        <v>7000</v>
+        <v>4850</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="Q1025" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,36 +74225,36 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1026" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="L1026" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M1026" t="n">
-        <v>6750</v>
+        <v>4350</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1027" t="n">
-        <v>6100</v>
+        <v>3700</v>
       </c>
       <c r="L1027" t="n">
-        <v>6300</v>
+        <v>4100</v>
       </c>
       <c r="M1027" t="n">
-        <v>6200</v>
+        <v>3900</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="Q1027" t="n">
         <v>16</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1028" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="L1028" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="M1028" t="n">
-        <v>5800</v>
+        <v>5299</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="Q1028" t="n">
         <v>16</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74436,41 +74436,41 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>160</v>
+        <v>1400</v>
       </c>
       <c r="K1029" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1029" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M1029" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="Q1029" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,36 +74513,36 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K1030" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1030" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M1030" t="n">
-        <v>8750</v>
+        <v>7727</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>583</v>
+        <v>309</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,41 +74580,41 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="K1031" t="n">
         <v>7000</v>
       </c>
       <c r="L1031" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M1031" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74652,41 +74652,41 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>1330</v>
+        <v>400</v>
       </c>
       <c r="K1032" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1032" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1032" t="n">
-        <v>8504</v>
+        <v>6750</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Q1032" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,41 +74724,41 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K1033" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1033" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1033" t="n">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="Q1033" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1034" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L1034" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M1034" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="Q1034" t="n">
         <v>16</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,7 +74873,7 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1035" t="n">
@@ -74883,14 +74883,14 @@
         <v>6500</v>
       </c>
       <c r="L1035" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1035" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="Q1035" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74940,29 +74940,29 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1036" t="n">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="L1036" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M1036" t="n">
-        <v>4700</v>
+        <v>8750</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
@@ -74971,10 +74971,10 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="Q1036" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,20 +75021,20 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1037" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1037" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1037" t="n">
-        <v>5753</v>
+        <v>7250</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
@@ -75043,10 +75043,10 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q1037" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K1038" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="L1038" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M1038" t="n">
-        <v>4400</v>
+        <v>8504</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="Q1038" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>52</v>
+        <v>970</v>
       </c>
       <c r="K1039" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1039" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1039" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Q1039" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1040" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L1040" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M1040" t="n">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Q1040" t="n">
         <v>16</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1041" t="n">
         <v>160</v>
       </c>
       <c r="K1041" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L1041" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1041" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>611</v>
+        <v>338</v>
       </c>
       <c r="Q1041" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,41 +75372,41 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>1420</v>
+        <v>250</v>
       </c>
       <c r="K1042" t="n">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="L1042" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M1042" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="Q1042" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,41 +75444,41 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="K1043" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1043" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1043" t="n">
-        <v>7500</v>
+        <v>5753</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q1043" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1044" t="n">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="L1044" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="M1044" t="n">
-        <v>5700</v>
+        <v>4400</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="Q1044" t="n">
         <v>16</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,33 +75593,33 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>$/malla 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1045" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1045" t="n">
         <v>250</v>
-      </c>
-      <c r="K1045" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L1045" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M1045" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N1045" t="inlineStr">
-        <is>
-          <t>$/malla 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1045" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P1045" t="n">
-        <v>350</v>
       </c>
       <c r="Q1045" t="n">
         <v>20</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1046" t="n">
         <v>5300</v>
       </c>
       <c r="L1046" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="M1046" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q1046" t="n">
         <v>16</v>
@@ -75732,41 +75732,41 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1047" t="n">
         <v>160</v>
       </c>
       <c r="K1047" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1047" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1047" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q1047" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,11 +75809,11 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>250</v>
+        <v>1420</v>
       </c>
       <c r="K1048" t="n">
         <v>9000</v>
@@ -75826,19 +75826,19 @@
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q1048" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,36 +75881,36 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K1049" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1049" t="n">
         <v>8000</v>
       </c>
       <c r="M1049" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75948,41 +75948,41 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K1050" t="n">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="L1050" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M1050" t="n">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q1050" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76020,41 +76020,41 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K1051" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1051" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1051" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q1051" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1052" t="n">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="L1052" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="M1052" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1052" t="n">
         <v>16</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1053" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="L1053" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="M1053" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q1053" t="n">
         <v>16</v>
@@ -76236,29 +76236,29 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1054" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1054" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1054" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
@@ -76267,10 +76267,10 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q1054" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76308,29 +76308,29 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1055" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="L1055" t="n">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="M1055" t="n">
-        <v>5300</v>
+        <v>8000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
@@ -76339,10 +76339,10 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="Q1055" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76380,41 +76380,41 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K1056" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="L1056" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1056" t="n">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="Q1056" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,41 +76452,41 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1057" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="L1057" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M1057" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="Q1057" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K1058" t="n">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="L1058" t="n">
         <v>5800</v>
       </c>
       <c r="M1058" t="n">
-        <v>5651</v>
+        <v>5700</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,12 +76555,444 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q1058" t="n">
         <v>16</v>
       </c>
       <c r="R1058" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1059" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1059" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>5400</v>
+      </c>
+      <c r="N1059" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1059" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1059" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1059" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1060" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1060" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1060" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1060" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1060" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1060" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>430</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N1061" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1061" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1061" t="n">
+        <v>331</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1061" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1062" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>4900</v>
+      </c>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1062" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1062" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1062" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1063" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>4200</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>4600</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1063" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1063" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1063" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1064" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1064" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>5800</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>5651</v>
+      </c>
+      <c r="N1064" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1064" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1064" t="n">
+        <v>353</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1064" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1110"/>
+  <dimension ref="A1:R1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J965" t="n">
         <v>430</v>
       </c>
       <c r="K965" t="n">
-        <v>7000</v>
+        <v>3700</v>
       </c>
       <c r="L965" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M965" t="n">
-        <v>7500</v>
+        <v>3850</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1600</v>
+        <v>8600</v>
       </c>
       <c r="K966" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L966" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="M966" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="Q966" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,36 +69977,36 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K967" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="L967" t="n">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="M967" t="n">
-        <v>8500</v>
+        <v>3400</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>567</v>
+        <v>212</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,24 +70049,24 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>430</v>
+        <v>3200</v>
       </c>
       <c r="K968" t="n">
-        <v>5600</v>
+        <v>1500</v>
       </c>
       <c r="L968" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="M968" t="n">
-        <v>5700</v>
+        <v>1650</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="Q968" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,24 +70121,24 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K969" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L969" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="M969" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="Q969" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K970" t="n">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="L970" t="n">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="M970" t="n">
-        <v>5300</v>
+        <v>4250</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="Q970" t="n">
         <v>16</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70260,41 +70260,41 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K971" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L971" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M971" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q971" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,36 +70337,36 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K972" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L972" t="n">
         <v>9000</v>
       </c>
       <c r="M972" t="n">
-        <v>8750</v>
+        <v>9000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70404,41 +70404,41 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K973" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L973" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M973" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J974" t="n">
         <v>430</v>
       </c>
       <c r="K974" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="L974" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M974" t="n">
-        <v>5100</v>
+        <v>5700</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q974" t="n">
         <v>16</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,24 +70553,24 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K975" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L975" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M975" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
@@ -70579,10 +70579,10 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q975" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J976" t="n">
         <v>160</v>
       </c>
       <c r="K976" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="L976" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="M976" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="Q976" t="n">
         <v>16</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K977" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L977" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M977" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q977" t="n">
         <v>16</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,20 +70773,20 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K978" t="n">
-        <v>5400</v>
+        <v>8500</v>
       </c>
       <c r="L978" t="n">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="M978" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
@@ -70795,10 +70795,10 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>344</v>
+        <v>486</v>
       </c>
       <c r="Q978" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70848,17 +70848,17 @@
         <v>160</v>
       </c>
       <c r="K979" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L979" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M979" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
@@ -70867,10 +70867,10 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q979" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K980" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L980" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M980" t="n">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q980" t="n">
         <v>16</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K981" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="L981" t="n">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="M981" t="n">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="Q981" t="n">
         <v>16</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K982" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="L982" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="M982" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="Q982" t="n">
         <v>16</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J983" t="n">
         <v>70</v>
       </c>
       <c r="K983" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="L983" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M983" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q983" t="n">
         <v>16</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,24 +71201,24 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K984" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="L984" t="n">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="M984" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
@@ -71227,10 +71227,10 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="Q984" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,24 +71273,24 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K985" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M985" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,41 +71340,41 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K986" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="L986" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="M986" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="Q986" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K987" t="n">
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="L987" t="n">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="M987" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q987" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K988" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L988" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="M988" t="n">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="Q988" t="n">
         <v>16</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,24 +71561,24 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K989" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L989" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M989" t="n">
-        <v>6750</v>
+        <v>5800</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q989" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,24 +71633,24 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K990" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L990" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="M990" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
@@ -71659,10 +71659,10 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="Q990" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,24 +71705,24 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L991" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q991" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71772,41 +71772,41 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K992" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L992" t="n">
-        <v>5200</v>
+        <v>10000</v>
       </c>
       <c r="M992" t="n">
-        <v>5100</v>
+        <v>10000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="Q992" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71844,41 +71844,41 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K993" t="n">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="L993" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M993" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="Q993" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K994" t="n">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="L994" t="n">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="M994" t="n">
-        <v>4200</v>
+        <v>5700</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="Q994" t="n">
         <v>16</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,24 +71993,24 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K995" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="L995" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M995" t="n">
-        <v>5348</v>
+        <v>6750</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q995" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,29 +72060,29 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J996" t="n">
         <v>160</v>
       </c>
       <c r="K996" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="L996" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="M996" t="n">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
@@ -72091,10 +72091,10 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>567</v>
+        <v>331</v>
       </c>
       <c r="Q996" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,29 +72132,29 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K997" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L997" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M997" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
@@ -72163,10 +72163,10 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72213,7 +72213,7 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K998" t="n">
         <v>5000</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,7 +72285,7 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K999" t="n">
         <v>4600</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,7 +72357,7 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1000" t="n">
         <v>4200</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1001" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L1001" t="n">
         <v>5500</v>
       </c>
       <c r="M1001" t="n">
-        <v>5400</v>
+        <v>5348</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q1001" t="n">
         <v>16</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72501,20 +72501,20 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1002" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L1002" t="n">
         <v>9000</v>
       </c>
       <c r="M1002" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,20 +72573,20 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1003" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1003" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1003" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,29 +72636,29 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1004" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M1004" t="n">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,41 +72708,41 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1410</v>
+        <v>340</v>
       </c>
       <c r="K1005" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="L1005" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M1005" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="Q1005" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K1006" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="L1006" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="M1006" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Q1006" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,11 +72857,11 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1007" t="n">
         <v>5300</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,20 +72933,20 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1008" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1008" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1008" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
@@ -72955,10 +72955,10 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q1008" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1009" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1009" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M1009" t="n">
-        <v>5100</v>
+        <v>8000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="Q1009" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,29 +73068,29 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
         <v>70</v>
       </c>
       <c r="K1010" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1010" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1010" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Q1010" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,41 +73140,41 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>210</v>
+        <v>1410</v>
       </c>
       <c r="K1011" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="L1011" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="M1011" t="n">
-        <v>4700</v>
+        <v>8000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="Q1011" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,41 +73212,41 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K1012" t="n">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="L1012" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M1012" t="n">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="Q1012" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,21 +73289,21 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K1013" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1013" t="n">
         <v>5400</v>
       </c>
-      <c r="L1013" t="n">
-        <v>5600</v>
-      </c>
-      <c r="M1013" t="n">
-        <v>5500</v>
-      </c>
       <c r="N1013" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q1013" t="n">
         <v>16</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,7 +73365,7 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1014" t="n">
         <v>7000</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
         <v>250</v>
       </c>
       <c r="K1015" t="n">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="L1015" t="n">
         <v>5200</v>
       </c>
       <c r="M1015" t="n">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q1015" t="n">
         <v>16</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,24 +73505,24 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1016" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L1016" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
@@ -73531,10 +73531,10 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="Q1016" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73572,29 +73572,29 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K1017" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="L1017" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="M1017" t="n">
-        <v>8750</v>
+        <v>4700</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73644,29 +73644,29 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1018" t="n">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="L1018" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="M1018" t="n">
-        <v>10750</v>
+        <v>5700</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>597</v>
+        <v>356</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,29 +73716,29 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1019" t="n">
-        <v>7500</v>
+        <v>5400</v>
       </c>
       <c r="L1019" t="n">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="M1019" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="Q1019" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73788,29 +73788,29 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K1020" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1020" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1020" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
@@ -73819,10 +73819,10 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>556</v>
+        <v>350</v>
       </c>
       <c r="Q1020" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1021" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="L1021" t="n">
         <v>5200</v>
       </c>
       <c r="M1021" t="n">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q1021" t="n">
         <v>16</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,24 +73937,24 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1022" t="n">
         <v>160</v>
       </c>
       <c r="K1022" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L1022" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1022" t="n">
-        <v>6750</v>
+        <v>5800</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
@@ -73963,10 +73963,10 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q1022" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -74004,29 +74004,29 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1023" t="n">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="L1023" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M1023" t="n">
-        <v>4700</v>
+        <v>8750</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
@@ -74035,10 +74035,10 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="Q1023" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74076,29 +74076,29 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
         <v>70</v>
       </c>
       <c r="K1024" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L1024" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1024" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>288</v>
+        <v>597</v>
       </c>
       <c r="Q1024" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74148,29 +74148,29 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1025" t="n">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="L1025" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M1025" t="n">
-        <v>4400</v>
+        <v>7750</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
@@ -74179,10 +74179,10 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="Q1025" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74220,29 +74220,29 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K1026" t="n">
-        <v>5300</v>
+        <v>10000</v>
       </c>
       <c r="L1026" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M1026" t="n">
-        <v>5401</v>
+        <v>10000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
@@ -74251,10 +74251,10 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>338</v>
+        <v>556</v>
       </c>
       <c r="Q1026" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,24 +74369,24 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1028" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L1028" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M1028" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
@@ -74395,10 +74395,10 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q1028" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1029" t="n">
         <v>250</v>
       </c>
       <c r="K1029" t="n">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="L1029" t="n">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="M1029" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="Q1029" t="n">
         <v>16</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,24 +74513,24 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K1030" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L1030" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1030" t="n">
-        <v>5401</v>
+        <v>5750</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
@@ -74539,10 +74539,10 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="Q1030" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1031" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="L1031" t="n">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="M1031" t="n">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="Q1031" t="n">
         <v>16</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K1032" t="n">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="L1032" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M1032" t="n">
-        <v>4700</v>
+        <v>5401</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="Q1032" t="n">
         <v>16</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K1033" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="L1033" t="n">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="M1033" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="Q1033" t="n">
         <v>16</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1034" t="n">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="L1034" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1034" t="n">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="Q1034" t="n">
         <v>16</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,24 +74873,24 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K1035" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="L1035" t="n">
-        <v>7500</v>
+        <v>4400</v>
       </c>
       <c r="M1035" t="n">
-        <v>7308</v>
+        <v>4300</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="Q1035" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,36 +74945,36 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>9000</v>
+        <v>133</v>
       </c>
       <c r="K1036" t="n">
-        <v>2600</v>
+        <v>5300</v>
       </c>
       <c r="L1036" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1036" t="n">
-        <v>2822</v>
+        <v>5401</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="Q1036" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,24 +75017,24 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="K1037" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1037" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M1037" t="n">
-        <v>6714</v>
+        <v>5100</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
@@ -75043,10 +75043,10 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="Q1037" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,36 +75089,36 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>5000</v>
+        <v>340</v>
       </c>
       <c r="K1038" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="L1038" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M1038" t="n">
-        <v>2000</v>
+        <v>4700</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="Q1038" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1240</v>
+        <v>210</v>
       </c>
       <c r="K1039" t="n">
-        <v>12000</v>
+        <v>4200</v>
       </c>
       <c r="L1039" t="n">
-        <v>13000</v>
+        <v>4200</v>
       </c>
       <c r="M1039" t="n">
-        <v>12500</v>
+        <v>4200</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="Q1039" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75228,41 +75228,41 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K1040" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="L1040" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M1040" t="n">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="Q1040" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,24 +75305,24 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="K1041" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1041" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="M1041" t="n">
-        <v>4500</v>
+        <v>7308</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
@@ -75331,10 +75331,10 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>281</v>
+        <v>406</v>
       </c>
       <c r="Q1041" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,36 +75377,36 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="K1042" t="n">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="L1042" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="M1042" t="n">
-        <v>3950</v>
+        <v>2822</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="Q1042" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,24 +75449,24 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K1043" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L1043" t="n">
-        <v>3600</v>
+        <v>7000</v>
       </c>
       <c r="M1043" t="n">
-        <v>3400</v>
+        <v>6714</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
@@ -75475,10 +75475,10 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="Q1043" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,36 +75521,36 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>106</v>
+        <v>5000</v>
       </c>
       <c r="K1044" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L1044" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="M1044" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q1044" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>1600</v>
+        <v>1240</v>
       </c>
       <c r="K1045" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1045" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1045" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="Q1045" t="n">
         <v>25</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="K1046" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1046" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1046" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q1046" t="n">
         <v>25</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
         <v>340</v>
       </c>
       <c r="K1047" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="L1047" t="n">
-        <v>6400</v>
+        <v>4700</v>
       </c>
       <c r="M1047" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="Q1047" t="n">
         <v>16</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
         <v>250</v>
       </c>
       <c r="K1048" t="n">
-        <v>5800</v>
+        <v>3700</v>
       </c>
       <c r="L1048" t="n">
-        <v>5800</v>
+        <v>4200</v>
       </c>
       <c r="M1048" t="n">
-        <v>5800</v>
+        <v>3950</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="Q1048" t="n">
         <v>16</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
         <v>160</v>
       </c>
       <c r="K1049" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="L1049" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="M1049" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="Q1049" t="n">
         <v>16</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K1050" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L1050" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M1050" t="n">
-        <v>6650</v>
+        <v>5000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="Q1050" t="n">
         <v>16</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76020,41 +76020,41 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1051" t="n">
         <v>1600</v>
       </c>
       <c r="K1051" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="L1051" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="M1051" t="n">
-        <v>2650</v>
+        <v>11000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="Q1051" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76092,41 +76092,41 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1052" t="n">
-        <v>6100</v>
+        <v>9000</v>
       </c>
       <c r="L1052" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="M1052" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="Q1052" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,36 +76169,36 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K1053" t="n">
-        <v>2100</v>
+        <v>6200</v>
       </c>
       <c r="L1053" t="n">
-        <v>2400</v>
+        <v>6400</v>
       </c>
       <c r="M1053" t="n">
-        <v>2250</v>
+        <v>6300</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="Q1053" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1054" t="n">
         <v>250</v>
       </c>
       <c r="K1054" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L1054" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1054" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="Q1054" t="n">
         <v>16</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,36 +76313,36 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K1055" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1055" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M1055" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>150</v>
+        <v>406</v>
       </c>
       <c r="Q1055" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76380,29 +76380,29 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K1056" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L1056" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="M1056" t="n">
-        <v>8750</v>
+        <v>6650</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
@@ -76411,10 +76411,10 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>583</v>
+        <v>416</v>
       </c>
       <c r="Q1056" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,41 +76452,41 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>97</v>
+        <v>1600</v>
       </c>
       <c r="K1057" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L1057" t="n">
-        <v>11000</v>
+        <v>2800</v>
       </c>
       <c r="M1057" t="n">
-        <v>10747</v>
+        <v>2650</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="Q1057" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76524,29 +76524,29 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1058" t="n">
-        <v>7500</v>
+        <v>6100</v>
       </c>
       <c r="L1058" t="n">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="M1058" t="n">
-        <v>7747</v>
+        <v>6250</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
@@ -76555,10 +76555,10 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>516</v>
+        <v>391</v>
       </c>
       <c r="Q1058" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76596,41 +76596,41 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="K1059" t="n">
-        <v>9500</v>
+        <v>2100</v>
       </c>
       <c r="L1059" t="n">
-        <v>10000</v>
+        <v>2400</v>
       </c>
       <c r="M1059" t="n">
-        <v>9750</v>
+        <v>2250</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>542</v>
+        <v>112</v>
       </c>
       <c r="Q1059" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76668,41 +76668,41 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1330</v>
+        <v>250</v>
       </c>
       <c r="K1060" t="n">
         <v>7000</v>
       </c>
       <c r="L1060" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1060" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="Q1060" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76740,41 +76740,41 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K1061" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1061" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1061" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q1061" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,20 +76821,20 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K1062" t="n">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="L1062" t="n">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="M1062" t="n">
-        <v>5150</v>
+        <v>8750</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
@@ -76843,10 +76843,10 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>322</v>
+        <v>583</v>
       </c>
       <c r="Q1062" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,20 +76893,20 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1063" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L1063" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M1063" t="n">
-        <v>6750</v>
+        <v>10747</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
@@ -76915,10 +76915,10 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="Q1063" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76965,20 +76965,20 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1064" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L1064" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M1064" t="n">
-        <v>4650</v>
+        <v>7747</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
@@ -76987,10 +76987,10 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>291</v>
+        <v>516</v>
       </c>
       <c r="Q1064" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,20 +77037,20 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K1065" t="n">
-        <v>5900</v>
+        <v>9500</v>
       </c>
       <c r="L1065" t="n">
-        <v>6400</v>
+        <v>10000</v>
       </c>
       <c r="M1065" t="n">
-        <v>6147</v>
+        <v>9750</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
@@ -77059,10 +77059,10 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="Q1065" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77100,41 +77100,41 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K1066" t="n">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="L1066" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="M1066" t="n">
-        <v>4150</v>
+        <v>7500</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="Q1066" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77172,41 +77172,41 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>133</v>
+        <v>610</v>
       </c>
       <c r="K1067" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1067" t="n">
         <v>5500</v>
       </c>
-      <c r="L1067" t="n">
-        <v>5800</v>
-      </c>
-      <c r="M1067" t="n">
-        <v>5651</v>
-      </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="Q1067" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K1068" t="n">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="L1068" t="n">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="M1068" t="n">
-        <v>8000</v>
+        <v>5150</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="Q1068" t="n">
         <v>16</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,36 +77321,36 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K1069" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1069" t="n">
         <v>7000</v>
       </c>
       <c r="M1069" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="Q1069" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,36 +77393,36 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K1070" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L1070" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M1070" t="n">
-        <v>9000</v>
+        <v>4650</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="Q1070" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,24 +77465,24 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K1071" t="n">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="L1071" t="n">
-        <v>5000</v>
+        <v>6400</v>
       </c>
       <c r="M1071" t="n">
-        <v>4850</v>
+        <v>6147</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
@@ -77491,10 +77491,10 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q1071" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1072" t="n">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="L1072" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="M1072" t="n">
-        <v>4350</v>
+        <v>4150</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Q1072" t="n">
         <v>16</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K1073" t="n">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="L1073" t="n">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="M1073" t="n">
-        <v>3900</v>
+        <v>5651</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="Q1073" t="n">
         <v>16</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>97</v>
+        <v>650</v>
       </c>
       <c r="K1074" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="L1074" t="n">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="M1074" t="n">
-        <v>5299</v>
+        <v>8000</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>331</v>
+        <v>500</v>
       </c>
       <c r="Q1074" t="n">
         <v>16</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77748,41 +77748,41 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1075" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1075" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1075" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="Q1075" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77820,29 +77820,29 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K1076" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1076" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1076" t="n">
-        <v>7727</v>
+        <v>9000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
@@ -77851,10 +77851,10 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>309</v>
+        <v>500</v>
       </c>
       <c r="Q1076" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,36 +77897,36 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="K1077" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="L1077" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1077" t="n">
-        <v>7000</v>
+        <v>4850</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="Q1077" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,36 +77969,36 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1078" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="L1078" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M1078" t="n">
-        <v>6750</v>
+        <v>4350</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="Q1078" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1079" t="n">
-        <v>6100</v>
+        <v>3700</v>
       </c>
       <c r="L1079" t="n">
-        <v>6300</v>
+        <v>4100</v>
       </c>
       <c r="M1079" t="n">
-        <v>6200</v>
+        <v>3900</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="Q1079" t="n">
         <v>16</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1080" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="L1080" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="M1080" t="n">
-        <v>5800</v>
+        <v>5299</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="Q1080" t="n">
         <v>16</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78180,41 +78180,41 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>160</v>
+        <v>1400</v>
       </c>
       <c r="K1081" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1081" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M1081" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="Q1081" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,36 +78257,36 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K1082" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1082" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M1082" t="n">
-        <v>8750</v>
+        <v>7727</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>583</v>
+        <v>309</v>
       </c>
       <c r="Q1082" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78324,41 +78324,41 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="K1083" t="n">
         <v>7000</v>
       </c>
       <c r="L1083" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M1083" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="Q1083" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78396,41 +78396,41 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>1330</v>
+        <v>400</v>
       </c>
       <c r="K1084" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1084" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1084" t="n">
-        <v>8504</v>
+        <v>6750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Q1084" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78468,41 +78468,41 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K1085" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1085" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1085" t="n">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="Q1085" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1086" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L1086" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="M1086" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="Q1086" t="n">
         <v>16</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,7 +78617,7 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1087" t="n">
@@ -78627,14 +78627,14 @@
         <v>6500</v>
       </c>
       <c r="L1087" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1087" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
@@ -78643,10 +78643,10 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="Q1087" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78684,29 +78684,29 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1088" t="n">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="L1088" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M1088" t="n">
-        <v>4700</v>
+        <v>8750</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
@@ -78715,10 +78715,10 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="Q1088" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,20 +78765,20 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1089" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1089" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1089" t="n">
-        <v>5753</v>
+        <v>7250</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
@@ -78787,10 +78787,10 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q1089" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78828,41 +78828,41 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K1090" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="L1090" t="n">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="M1090" t="n">
-        <v>4400</v>
+        <v>8504</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="Q1090" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78900,41 +78900,41 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>52</v>
+        <v>970</v>
       </c>
       <c r="K1091" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1091" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1091" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Q1091" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1092" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L1092" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M1092" t="n">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Q1092" t="n">
         <v>16</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,41 +79044,41 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1093" t="n">
         <v>160</v>
       </c>
       <c r="K1093" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L1093" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1093" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>611</v>
+        <v>338</v>
       </c>
       <c r="Q1093" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>1420</v>
+        <v>250</v>
       </c>
       <c r="K1094" t="n">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="L1094" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M1094" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="Q1094" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79188,41 +79188,41 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="K1095" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1095" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1095" t="n">
-        <v>7500</v>
+        <v>5753</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q1095" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1096" t="n">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="L1096" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="M1096" t="n">
-        <v>5700</v>
+        <v>4400</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="Q1096" t="n">
         <v>16</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,33 +79337,33 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1097" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>$/malla 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1097" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1097" t="n">
         <v>250</v>
-      </c>
-      <c r="K1097" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L1097" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M1097" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N1097" t="inlineStr">
-        <is>
-          <t>$/malla 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1097" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P1097" t="n">
-        <v>350</v>
       </c>
       <c r="Q1097" t="n">
         <v>20</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1098" t="n">
         <v>5300</v>
       </c>
       <c r="L1098" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="M1098" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q1098" t="n">
         <v>16</v>
@@ -79476,41 +79476,41 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1099" t="n">
         <v>160</v>
       </c>
       <c r="K1099" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1099" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1099" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q1099" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,11 +79553,11 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>250</v>
+        <v>1420</v>
       </c>
       <c r="K1100" t="n">
         <v>9000</v>
@@ -79570,19 +79570,19 @@
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q1100" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,36 +79625,36 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K1101" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1101" t="n">
         <v>8000</v>
       </c>
       <c r="M1101" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="Q1101" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,41 +79692,41 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K1102" t="n">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="L1102" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M1102" t="n">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q1102" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,41 +79764,41 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K1103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q1103" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1104" t="n">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="L1104" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="M1104" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1104" t="n">
         <v>16</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1105" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="L1105" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="M1105" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q1105" t="n">
         <v>16</v>
@@ -79980,29 +79980,29 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1106" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1106" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1106" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
@@ -80011,10 +80011,10 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q1106" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80052,29 +80052,29 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1107" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="L1107" t="n">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="M1107" t="n">
-        <v>5300</v>
+        <v>8000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
@@ -80083,10 +80083,10 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="Q1107" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80124,41 +80124,41 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K1108" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="L1108" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1108" t="n">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="Q1108" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1109" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="L1109" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M1109" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="Q1109" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K1110" t="n">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="L1110" t="n">
         <v>5800</v>
       </c>
       <c r="M1110" t="n">
-        <v>5651</v>
+        <v>5700</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,12 +80299,444 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q1110" t="n">
         <v>16</v>
       </c>
       <c r="R1110" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1111" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1111" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>5400</v>
+      </c>
+      <c r="N1111" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1111" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1111" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1112" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1112" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1112" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1112" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1112" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1112" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1113" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1113" t="n">
+        <v>430</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N1113" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1113" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1113" t="n">
+        <v>331</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1114" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>4900</v>
+      </c>
+      <c r="N1114" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1114" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1114" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1115" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1115" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>4200</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>4600</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N1115" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1115" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1115" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1116" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1116" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>5800</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>5651</v>
+      </c>
+      <c r="N1116" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1116" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1116" t="n">
+        <v>353</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1116" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K975" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L975" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M975" t="n">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="Q975" t="n">
         <v>16</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,36 +70625,36 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="K976" t="n">
-        <v>4600</v>
+        <v>2000</v>
       </c>
       <c r="L976" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="M976" t="n">
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="Q976" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K977" t="n">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="L977" t="n">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="M977" t="n">
-        <v>4200</v>
+        <v>3550</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="Q977" t="n">
         <v>16</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,36 +70769,36 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>97</v>
+        <v>2120</v>
       </c>
       <c r="K978" t="n">
-        <v>5300</v>
+        <v>1600</v>
       </c>
       <c r="L978" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="M978" t="n">
-        <v>5399</v>
+        <v>1750</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="Q978" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,36 +70841,36 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>1600</v>
+        <v>206</v>
       </c>
       <c r="K979" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L979" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M979" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="Q979" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K980" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L980" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M980" t="n">
-        <v>6650</v>
+        <v>5100</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="Q980" t="n">
         <v>16</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,36 +70985,36 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K981" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="L981" t="n">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="M981" t="n">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="Q981" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K982" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="L982" t="n">
-        <v>6400</v>
+        <v>4200</v>
       </c>
       <c r="M982" t="n">
-        <v>6200</v>
+        <v>4200</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="Q982" t="n">
         <v>16</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,36 +71129,36 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>520</v>
+        <v>97</v>
       </c>
       <c r="K983" t="n">
-        <v>3000</v>
+        <v>5300</v>
       </c>
       <c r="L983" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M983" t="n">
-        <v>3000</v>
+        <v>5399</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="Q983" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71201,36 +71201,36 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K984" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L984" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="M984" t="n">
-        <v>7000</v>
+        <v>2650</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="Q984" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,41 +71268,41 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>1330</v>
+        <v>520</v>
       </c>
       <c r="K985" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L985" t="n">
-        <v>13000</v>
+        <v>6800</v>
       </c>
       <c r="M985" t="n">
-        <v>12500</v>
+        <v>6650</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="Q985" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,41 +71340,41 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K986" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L986" t="n">
-        <v>11000</v>
+        <v>2400</v>
       </c>
       <c r="M986" t="n">
-        <v>10500</v>
+        <v>2200</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="Q986" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K987" t="n">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="L987" t="n">
-        <v>4100</v>
+        <v>6400</v>
       </c>
       <c r="M987" t="n">
-        <v>4000</v>
+        <v>6200</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="Q987" t="n">
         <v>16</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,36 +71489,36 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K988" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L988" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M988" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q988" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K989" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L989" t="n">
-        <v>3300</v>
+        <v>7000</v>
       </c>
       <c r="M989" t="n">
-        <v>3148</v>
+        <v>7000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>197</v>
+        <v>438</v>
       </c>
       <c r="Q989" t="n">
         <v>16</v>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K990" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="L990" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M990" t="n">
-        <v>4400</v>
+        <v>12500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q990" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K991" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L991" t="n">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="M991" t="n">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="Q991" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
         <v>340</v>
       </c>
       <c r="K992" t="n">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="L992" t="n">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="M992" t="n">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="Q992" t="n">
         <v>16</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
         <v>250</v>
       </c>
       <c r="K993" t="n">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="L993" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="M993" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="Q993" t="n">
         <v>16</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K994" t="n">
-        <v>5300</v>
+        <v>3000</v>
       </c>
       <c r="L994" t="n">
-        <v>5500</v>
+        <v>3300</v>
       </c>
       <c r="M994" t="n">
-        <v>5401</v>
+        <v>3148</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="Q994" t="n">
         <v>16</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,29 +71988,29 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K995" t="n">
-        <v>8500</v>
+        <v>4300</v>
       </c>
       <c r="L995" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M995" t="n">
-        <v>8750</v>
+        <v>4400</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>486</v>
+        <v>275</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,29 +72060,29 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="K996" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L996" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="M996" t="n">
-        <v>7750</v>
+        <v>5100</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
@@ -72091,10 +72091,10 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,29 +72132,29 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K997" t="n">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="L997" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M997" t="n">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
@@ -72163,10 +72163,10 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="Q997" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K998" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="L998" t="n">
-        <v>5400</v>
+        <v>4400</v>
       </c>
       <c r="M998" t="n">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="Q998" t="n">
         <v>16</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,24 +72281,24 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K999" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L999" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M999" t="n">
-        <v>7000</v>
+        <v>5401</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
@@ -72307,10 +72307,10 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q999" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,29 +72348,29 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K1000" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="L1000" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1000" t="n">
-        <v>4900</v>
+        <v>8750</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q1000" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,20 +72429,20 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K1001" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L1001" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1001" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>300</v>
+        <v>431</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,20 +72501,20 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K1002" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L1002" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="M1002" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1002" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="K1003" t="n">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="L1003" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="M1003" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1003" t="n">
         <v>16</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,20 +72645,20 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K1004" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1004" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M1004" t="n">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Q1004" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K1005" t="n">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="L1005" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1005" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Q1005" t="n">
         <v>16</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,24 +72785,24 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1006" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="L1006" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1006" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="Q1006" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1007" t="n">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="L1007" t="n">
-        <v>5500</v>
+        <v>4600</v>
       </c>
       <c r="M1007" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="Q1007" t="n">
         <v>16</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,29 +72924,29 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="K1008" t="n">
-        <v>6900</v>
+        <v>5600</v>
       </c>
       <c r="L1008" t="n">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="M1008" t="n">
-        <v>7151</v>
+        <v>5700</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
@@ -72955,10 +72955,10 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="Q1008" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -72996,29 +72996,29 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1009" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L1009" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M1009" t="n">
-        <v>6547</v>
+        <v>5100</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="Q1009" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1010" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L1010" t="n">
         <v>4800</v>
       </c>
-      <c r="L1010" t="n">
-        <v>5200</v>
-      </c>
       <c r="M1010" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="Q1010" t="n">
         <v>16</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1011" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="L1011" t="n">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="M1011" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="Q1011" t="n">
         <v>16</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1012" t="n">
-        <v>3800</v>
+        <v>5300</v>
       </c>
       <c r="L1012" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="M1012" t="n">
-        <v>4000</v>
+        <v>5400</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q1012" t="n">
         <v>16</v>
@@ -73284,29 +73284,29 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="K1013" t="n">
-        <v>5300</v>
+        <v>6900</v>
       </c>
       <c r="L1013" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="M1013" t="n">
-        <v>5500</v>
+        <v>7151</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="Q1013" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73356,41 +73356,41 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>600</v>
+        <v>97</v>
       </c>
       <c r="K1014" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="L1014" t="n">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="M1014" t="n">
-        <v>8000</v>
+        <v>6547</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q1014" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,36 +73433,36 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>14000</v>
+        <v>430</v>
       </c>
       <c r="K1015" t="n">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="L1015" t="n">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="M1015" t="n">
-        <v>2657</v>
+        <v>5000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="Q1015" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K1016" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L1016" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M1016" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="Q1016" t="n">
         <v>16</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,36 +73577,36 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>9000</v>
+        <v>250</v>
       </c>
       <c r="K1017" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L1017" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M1017" t="n">
         <v>4000</v>
       </c>
-      <c r="M1017" t="n">
-        <v>3667</v>
-      </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="Q1017" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,24 +73649,24 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K1018" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L1018" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="M1018" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,20 +73725,20 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>5200</v>
+        <v>600</v>
       </c>
       <c r="K1019" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L1019" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M1019" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="Q1019" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1600</v>
+        <v>14000</v>
       </c>
       <c r="K1020" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L1020" t="n">
         <v>3000</v>
       </c>
       <c r="M1020" t="n">
-        <v>3000</v>
+        <v>2657</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q1020" t="n">
         <v>20</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,36 +73865,36 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K1021" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1021" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1021" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q1021" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K1022" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1022" t="n">
         <v>4000</v>
       </c>
       <c r="M1022" t="n">
-        <v>4000</v>
+        <v>3667</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="Q1022" t="n">
         <v>20</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74004,29 +74004,29 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K1023" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1023" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M1023" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
@@ -74035,10 +74035,10 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>583</v>
+        <v>403</v>
       </c>
       <c r="Q1023" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,41 +74076,41 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>70</v>
+        <v>5200</v>
       </c>
       <c r="K1024" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="L1024" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M1024" t="n">
-        <v>10750</v>
+        <v>3250</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>597</v>
+        <v>162</v>
       </c>
       <c r="Q1024" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74148,41 +74148,41 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>70</v>
+        <v>1600</v>
       </c>
       <c r="K1025" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L1025" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1025" t="n">
-        <v>7750</v>
+        <v>3000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>517</v>
+        <v>150</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74220,25 +74220,25 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K1026" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1026" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1026" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,36 +74297,36 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>430</v>
+        <v>3400</v>
       </c>
       <c r="K1027" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1027" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M1027" t="n">
-        <v>5100</v>
+        <v>4000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="Q1027" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74376,17 +74376,17 @@
         <v>160</v>
       </c>
       <c r="K1028" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1028" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1028" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
@@ -74395,10 +74395,10 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="Q1028" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74436,29 +74436,29 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1029" t="n">
-        <v>4600</v>
+        <v>10500</v>
       </c>
       <c r="L1029" t="n">
-        <v>4800</v>
+        <v>11000</v>
       </c>
       <c r="M1029" t="n">
-        <v>4700</v>
+        <v>10750</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
@@ -74467,10 +74467,10 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>294</v>
+        <v>597</v>
       </c>
       <c r="Q1029" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74520,17 +74520,17 @@
         <v>70</v>
       </c>
       <c r="K1030" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1030" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1030" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
@@ -74539,10 +74539,10 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>288</v>
+        <v>517</v>
       </c>
       <c r="Q1030" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,29 +74580,29 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1031" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="L1031" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="M1031" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
@@ -74611,10 +74611,10 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>275</v>
+        <v>556</v>
       </c>
       <c r="Q1031" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K1032" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M1032" t="n">
-        <v>5401</v>
+        <v>5100</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Q1032" t="n">
         <v>16</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,24 +74729,24 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1033" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="L1033" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="M1033" t="n">
-        <v>6200</v>
+        <v>6750</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="Q1033" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1034" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1034" t="n">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="M1034" t="n">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="Q1034" t="n">
         <v>16</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,24 +74873,24 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1035" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1035" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1035" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="Q1035" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74940,41 +74940,41 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="K1036" t="n">
-        <v>12000</v>
+        <v>4400</v>
       </c>
       <c r="L1036" t="n">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="M1036" t="n">
-        <v>12495</v>
+        <v>4400</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q1036" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75012,41 +75012,41 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K1037" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="L1037" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M1037" t="n">
-        <v>9500</v>
+        <v>5401</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="Q1037" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1038" t="n">
-        <v>4600</v>
+        <v>6100</v>
       </c>
       <c r="L1038" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="M1038" t="n">
-        <v>4800</v>
+        <v>6200</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="Q1038" t="n">
         <v>16</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1039" t="n">
         <v>160</v>
       </c>
       <c r="K1039" t="n">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="L1039" t="n">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="M1039" t="n">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="Q1039" t="n">
         <v>16</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1040" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="L1040" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M1040" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="Q1040" t="n">
         <v>16</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>97</v>
+        <v>970</v>
       </c>
       <c r="K1041" t="n">
-        <v>5100</v>
+        <v>12000</v>
       </c>
       <c r="L1041" t="n">
-        <v>5400</v>
+        <v>13000</v>
       </c>
       <c r="M1041" t="n">
-        <v>5248</v>
+        <v>12495</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>328</v>
+        <v>500</v>
       </c>
       <c r="Q1041" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,36 +75377,36 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K1042" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1042" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1042" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q1042" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,29 +75444,29 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1043" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L1043" t="n">
         <v>5000</v>
       </c>
-      <c r="L1043" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1043" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
@@ -75475,10 +75475,10 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q1043" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1044" t="n">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="L1044" t="n">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="M1044" t="n">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="Q1044" t="n">
         <v>16</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K1045" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="L1045" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M1045" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="Q1045" t="n">
         <v>16</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K1046" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="L1046" t="n">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="M1046" t="n">
-        <v>4200</v>
+        <v>5248</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="Q1046" t="n">
         <v>16</v>
@@ -75732,29 +75732,29 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
         <v>160</v>
       </c>
       <c r="K1047" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L1047" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M1047" t="n">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>338</v>
+        <v>500</v>
       </c>
       <c r="Q1047" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75804,29 +75804,29 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="K1048" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1048" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M1048" t="n">
-        <v>4150</v>
+        <v>5500</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="Q1048" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,36 +75881,36 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>8600</v>
+        <v>430</v>
       </c>
       <c r="K1049" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="L1049" t="n">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="M1049" t="n">
-        <v>2250</v>
+        <v>5100</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="Q1049" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75960,13 +75960,13 @@
         <v>340</v>
       </c>
       <c r="K1050" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="L1050" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="M1050" t="n">
-        <v>3650</v>
+        <v>4700</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="Q1050" t="n">
         <v>16</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,36 +76025,36 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
+        <v>210</v>
+      </c>
+      <c r="K1051" t="n">
         <v>4200</v>
       </c>
-      <c r="K1051" t="n">
-        <v>1700</v>
-      </c>
       <c r="L1051" t="n">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="M1051" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="Q1051" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1052" t="n">
         <v>160</v>
       </c>
       <c r="K1052" t="n">
-        <v>3200</v>
+        <v>5300</v>
       </c>
       <c r="L1052" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="M1052" t="n">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="Q1052" t="n">
         <v>16</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1053" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1053" t="n">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="M1053" t="n">
-        <v>4650</v>
+        <v>4150</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="Q1053" t="n">
         <v>16</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76236,41 +76236,41 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>250</v>
+        <v>8600</v>
       </c>
       <c r="K1054" t="n">
-        <v>8000</v>
+        <v>2100</v>
       </c>
       <c r="L1054" t="n">
-        <v>9000</v>
+        <v>2400</v>
       </c>
       <c r="M1054" t="n">
-        <v>8400</v>
+        <v>2250</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="Q1054" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K1055" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L1055" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="M1055" t="n">
-        <v>8000</v>
+        <v>3650</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="Q1055" t="n">
         <v>16</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="K1056" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L1056" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M1056" t="n">
-        <v>2840</v>
+        <v>1800</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="Q1056" t="n">
         <v>20</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K1057" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="L1057" t="n">
-        <v>7000</v>
+        <v>3400</v>
       </c>
       <c r="M1057" t="n">
-        <v>7000</v>
+        <v>3300</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>438</v>
+        <v>206</v>
       </c>
       <c r="Q1057" t="n">
         <v>16</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,36 +76529,36 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="K1058" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L1058" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M1058" t="n">
-        <v>2000</v>
+        <v>4650</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="Q1058" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76596,41 +76596,41 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1059" t="n">
         <v>8000</v>
       </c>
-      <c r="K1059" t="n">
-        <v>3600</v>
-      </c>
       <c r="L1059" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M1059" t="n">
-        <v>3850</v>
+        <v>8400</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="Q1059" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76668,25 +76668,25 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>130</v>
+        <v>560</v>
       </c>
       <c r="K1060" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L1060" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1060" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="Q1060" t="n">
         <v>16</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76740,41 +76740,41 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="K1061" t="n">
-        <v>12000</v>
+        <v>2600</v>
       </c>
       <c r="L1061" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M1061" t="n">
-        <v>12000</v>
+        <v>2840</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>750</v>
+        <v>142</v>
       </c>
       <c r="Q1061" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="Q1062" t="n">
         <v>16</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,36 +76889,36 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>280</v>
+        <v>5000</v>
       </c>
       <c r="K1063" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L1063" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M1063" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q1063" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,36 +76961,36 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K1064" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="L1064" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1064" t="n">
-        <v>3500</v>
+        <v>3850</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="Q1064" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77028,25 +77028,25 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="K1065" t="n">
-        <v>5200</v>
+        <v>14000</v>
       </c>
       <c r="L1065" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="M1065" t="n">
-        <v>5300</v>
+        <v>14000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>331</v>
+        <v>875</v>
       </c>
       <c r="Q1065" t="n">
         <v>16</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77100,25 +77100,25 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K1066" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="L1066" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1066" t="n">
-        <v>4900</v>
+        <v>12000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>306</v>
+        <v>750</v>
       </c>
       <c r="Q1066" t="n">
         <v>16</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="K1067" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="L1067" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="M1067" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="Q1067" t="n">
         <v>16</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="K1068" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L1068" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="M1068" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q1068" t="n">
         <v>16</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77316,29 +77316,29 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="K1069" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1069" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M1069" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
@@ -77347,10 +77347,10 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>500</v>
+        <v>219</v>
       </c>
       <c r="Q1069" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77388,29 +77388,29 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="K1070" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="L1070" t="n">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="M1070" t="n">
-        <v>5494</v>
+        <v>5300</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
@@ -77419,10 +77419,10 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="Q1070" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77460,41 +77460,41 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1060</v>
+        <v>170</v>
       </c>
       <c r="K1071" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="L1071" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1071" t="n">
-        <v>9500</v>
+        <v>4900</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="Q1071" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77532,41 +77532,41 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="K1072" t="n">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="L1072" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="M1072" t="n">
-        <v>7500</v>
+        <v>4600</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q1072" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K1073" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="L1073" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="M1073" t="n">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q1073" t="n">
         <v>16</v>
@@ -77676,29 +77676,29 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K1074" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L1074" t="n">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="M1074" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
@@ -77707,10 +77707,10 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>297</v>
+        <v>500</v>
       </c>
       <c r="Q1074" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77748,29 +77748,29 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1075" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1075" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1075" t="n">
-        <v>4250</v>
+        <v>5494</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
@@ -77779,10 +77779,10 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="Q1075" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77820,41 +77820,41 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>106</v>
+        <v>1060</v>
       </c>
       <c r="K1076" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L1076" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="M1076" t="n">
-        <v>5650</v>
+        <v>9500</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="Q1076" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77892,41 +77892,41 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1077" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="L1077" t="n">
-        <v>5600</v>
+        <v>8000</v>
       </c>
       <c r="M1077" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="Q1077" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1078" t="n">
         <v>5000</v>
       </c>
       <c r="L1078" t="n">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="M1078" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q1078" t="n">
         <v>16</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1079" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1079" t="n">
-        <v>5800</v>
+        <v>4900</v>
       </c>
       <c r="M1079" t="n">
-        <v>5800</v>
+        <v>4750</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="Q1079" t="n">
         <v>16</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1080" t="n">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="L1080" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="M1080" t="n">
-        <v>5700</v>
+        <v>4250</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="Q1080" t="n">
         <v>16</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,24 +78185,24 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1081" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1081" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1081" t="n">
-        <v>6750</v>
+        <v>5650</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
@@ -78211,10 +78211,10 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q1081" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1082" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="L1082" t="n">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="M1082" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q1082" t="n">
         <v>16</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1083" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1083" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1083" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="Q1083" t="n">
         <v>16</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1084" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="L1084" t="n">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="M1084" t="n">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="Q1084" t="n">
         <v>16</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1085" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="L1085" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M1085" t="n">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="Q1085" t="n">
         <v>16</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,24 +78545,24 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1086" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L1086" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="M1086" t="n">
-        <v>4600</v>
+        <v>6750</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
@@ -78571,10 +78571,10 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="Q1086" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K1087" t="n">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="L1087" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="M1087" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1087" t="n">
         <v>16</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78684,41 +78684,41 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K1088" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1088" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1088" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="Q1088" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78756,41 +78756,41 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K1089" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="L1089" t="n">
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="M1089" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="Q1089" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1090" t="n">
-        <v>6200</v>
+        <v>4800</v>
       </c>
       <c r="L1090" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="M1090" t="n">
-        <v>6300</v>
+        <v>4900</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="Q1090" t="n">
         <v>16</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1091" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1091" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="M1091" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="Q1091" t="n">
         <v>16</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1092" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="L1092" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M1092" t="n">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="Q1092" t="n">
         <v>16</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,41 +79044,41 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K1093" t="n">
-        <v>6100</v>
+        <v>11000</v>
       </c>
       <c r="L1093" t="n">
-        <v>6300</v>
+        <v>11000</v>
       </c>
       <c r="M1093" t="n">
-        <v>6200</v>
+        <v>11000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="Q1093" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1094" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="L1094" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="M1094" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q1094" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1095" t="n">
         <v>340</v>
       </c>
       <c r="K1095" t="n">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="L1095" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="M1095" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Q1095" t="n">
         <v>16</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79260,25 +79260,25 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K1096" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="L1096" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1096" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>500</v>
+        <v>362</v>
       </c>
       <c r="Q1096" t="n">
         <v>16</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79332,25 +79332,25 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K1097" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1097" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1097" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="Q1097" t="n">
         <v>16</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79413,20 +79413,20 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K1098" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1098" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1098" t="n">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
@@ -79435,10 +79435,10 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q1098" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K1099" t="n">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="L1099" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="M1099" t="n">
-        <v>7227</v>
+        <v>5700</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="Q1099" t="n">
         <v>16</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,24 +79553,24 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K1100" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1100" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1100" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="Q1100" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79620,25 +79620,25 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K1101" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1101" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M1101" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="Q1101" t="n">
         <v>16</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,36 +79697,36 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K1102" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1102" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1102" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>567</v>
+        <v>438</v>
       </c>
       <c r="Q1102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,25 +79764,25 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>97</v>
+        <v>700</v>
       </c>
       <c r="K1103" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1103" t="n">
-        <v>10505</v>
+        <v>7000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="Q1103" t="n">
         <v>18</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79836,41 +79836,41 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="K1104" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1104" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1104" t="n">
-        <v>6494</v>
+        <v>7227</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="Q1104" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79908,25 +79908,25 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="K1105" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1105" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1105" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K1106" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L1106" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1106" t="n">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="Q1106" t="n">
         <v>16</v>
@@ -80052,7 +80052,7 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -80061,20 +80061,20 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1107" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1107" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1107" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
@@ -80083,10 +80083,10 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="Q1107" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80124,29 +80124,29 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1108" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="L1108" t="n">
-        <v>4600</v>
+        <v>11000</v>
       </c>
       <c r="M1108" t="n">
-        <v>4500</v>
+        <v>10505</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
@@ -80155,10 +80155,10 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>281</v>
+        <v>584</v>
       </c>
       <c r="Q1108" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,20 +80205,20 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1109" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1109" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1109" t="n">
-        <v>8512</v>
+        <v>6494</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
@@ -80227,10 +80227,10 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q1109" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,29 +80268,29 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1110" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1110" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M1110" t="n">
-        <v>4100</v>
+        <v>8500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
@@ -80299,10 +80299,10 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="Q1110" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1111" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="L1111" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="M1111" t="n">
-        <v>5299</v>
+        <v>4900</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="Q1111" t="n">
         <v>16</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80421,20 +80421,20 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K1112" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1112" t="n">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="M1112" t="n">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
@@ -80443,10 +80443,10 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="Q1112" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1113" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1113" t="n">
         <v>4600</v>
       </c>
-      <c r="L1113" t="n">
-        <v>4800</v>
-      </c>
       <c r="M1113" t="n">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="Q1113" t="n">
         <v>16</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80561,24 +80561,24 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1114" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="L1114" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M1114" t="n">
-        <v>4200</v>
+        <v>8512</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="Q1114" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
         <v>160</v>
       </c>
       <c r="K1115" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="L1115" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M1115" t="n">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="Q1115" t="n">
         <v>16</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="K1116" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="L1116" t="n">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="M1116" t="n">
-        <v>6650</v>
+        <v>5299</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="Q1116" t="n">
         <v>16</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1117" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1117" t="n">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="M1117" t="n">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="Q1117" t="n">
         <v>16</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1118" t="n">
         <v>340</v>
       </c>
       <c r="K1118" t="n">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="L1118" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M1118" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>438</v>
+        <v>294</v>
       </c>
       <c r="Q1118" t="n">
         <v>16</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1119" t="n">
-        <v>5400</v>
+        <v>4200</v>
       </c>
       <c r="L1119" t="n">
-        <v>5600</v>
+        <v>4200</v>
       </c>
       <c r="M1119" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="Q1119" t="n">
         <v>16</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1120" t="n">
         <v>160</v>
       </c>
       <c r="K1120" t="n">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="L1120" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M1120" t="n">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q1120" t="n">
         <v>16</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K1121" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L1121" t="n">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="M1121" t="n">
-        <v>5800</v>
+        <v>6650</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="Q1121" t="n">
         <v>16</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1122" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="L1122" t="n">
         <v>6400</v>
       </c>
       <c r="M1122" t="n">
-        <v>6250</v>
+        <v>6200</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q1122" t="n">
         <v>16</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,36 +81209,36 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1123" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1123" t="n">
         <v>7000</v>
       </c>
-      <c r="K1123" t="n">
-        <v>2200</v>
-      </c>
       <c r="L1123" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M1123" t="n">
-        <v>2350</v>
+        <v>7000</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>118</v>
+        <v>438</v>
       </c>
       <c r="Q1123" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1124" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="L1124" t="n">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="M1124" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="Q1124" t="n">
         <v>16</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81357,32 +81357,32 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>3400</v>
+        <v>160</v>
       </c>
       <c r="K1125" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="L1125" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="M1125" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="Q1125" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81432,13 +81432,13 @@
         <v>250</v>
       </c>
       <c r="K1126" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="L1126" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="M1126" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="Q1126" t="n">
         <v>16</v>
@@ -81497,24 +81497,24 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1127" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1127" t="n">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="M1127" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
@@ -81523,10 +81523,10 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="Q1127" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="K1128" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1128" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1128" t="n">
-        <v>2800</v>
+        <v>2350</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="Q1128" t="n">
         <v>20</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1129" t="n">
         <v>340</v>
       </c>
       <c r="K1129" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="L1129" t="n">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="M1129" t="n">
-        <v>5250</v>
+        <v>5800</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Q1129" t="n">
         <v>16</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81713,36 +81713,36 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>250</v>
+        <v>3400</v>
       </c>
       <c r="K1130" t="n">
-        <v>4700</v>
+        <v>2000</v>
       </c>
       <c r="L1130" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M1130" t="n">
-        <v>4850</v>
+        <v>2000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="Q1130" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1131" t="n">
-        <v>4300</v>
+        <v>6600</v>
       </c>
       <c r="L1131" t="n">
-        <v>4600</v>
+        <v>6600</v>
       </c>
       <c r="M1131" t="n">
-        <v>4450</v>
+        <v>6600</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="Q1131" t="n">
         <v>16</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81857,24 +81857,24 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1132" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1132" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M1132" t="n">
-        <v>5652</v>
+        <v>7000</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
@@ -81883,10 +81883,10 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q1132" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,36 +81929,36 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>430</v>
+        <v>5200</v>
       </c>
       <c r="K1133" t="n">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="L1133" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="M1133" t="n">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>356</v>
+        <v>140</v>
       </c>
       <c r="Q1133" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1134" t="n">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="L1134" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="M1134" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q1134" t="n">
         <v>16</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1135" t="n">
         <v>250</v>
       </c>
       <c r="K1135" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="L1135" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1135" t="n">
-        <v>6000</v>
+        <v>4850</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="Q1135" t="n">
         <v>16</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82140,41 +82140,41 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K1136" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="L1136" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="M1136" t="n">
-        <v>8000</v>
+        <v>4450</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="Q1136" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82212,41 +82212,41 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1500</v>
+        <v>97</v>
       </c>
       <c r="K1137" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1137" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1137" t="n">
-        <v>7467</v>
+        <v>5652</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="Q1137" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,24 +82289,24 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="K1138" t="n">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="L1138" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1138" t="n">
-        <v>8000</v>
+        <v>5700</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
@@ -82315,10 +82315,10 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1139" t="n">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="L1139" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="M1139" t="n">
-        <v>3850</v>
+        <v>5300</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="Q1139" t="n">
         <v>16</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,24 +82433,24 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>8600</v>
+        <v>250</v>
       </c>
       <c r="K1140" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L1140" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="M1140" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>105</v>
+        <v>375</v>
       </c>
       <c r="Q1140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82500,41 +82500,41 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K1141" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="L1141" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M1141" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="Q1141" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82572,41 +82572,41 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="K1142" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L1142" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M1142" t="n">
-        <v>1650</v>
+        <v>7467</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="Q1142" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82649,24 +82649,24 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="K1143" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="L1143" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="M1143" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
@@ -82675,10 +82675,10 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="Q1143" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K1144" t="n">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="L1144" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="M1144" t="n">
-        <v>4250</v>
+        <v>3850</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,12 +82747,372 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="Q1144" t="n">
         <v>16</v>
       </c>
       <c r="R1144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1145" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1145" t="n">
+        <v>8600</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N1145" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1145" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1145" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1146" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1146" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>3600</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N1146" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1146" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1146" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1147" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1147" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N1147" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1147" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1147" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1148" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1148" t="n">
+        <v>88</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1148" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1148" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1148" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1148" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1149" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1149" t="n">
+        <v>196</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>4100</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>4400</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1149" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1149" t="n">
+        <v>266</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1149" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>1330</v>
+        <v>340</v>
       </c>
       <c r="K990" t="n">
-        <v>12000</v>
+        <v>3800</v>
       </c>
       <c r="L990" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M990" t="n">
-        <v>12500</v>
+        <v>3900</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="Q990" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>610</v>
+        <v>6800</v>
       </c>
       <c r="K991" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L991" t="n">
-        <v>11000</v>
+        <v>2300</v>
       </c>
       <c r="M991" t="n">
-        <v>10500</v>
+        <v>2150</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>420</v>
+        <v>108</v>
       </c>
       <c r="Q991" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K992" t="n">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="L992" t="n">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="M992" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="Q992" t="n">
         <v>16</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,24 +71849,24 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>250</v>
+        <v>3200</v>
       </c>
       <c r="K993" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="L993" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="M993" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="Q993" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K994" t="n">
         <v>3000</v>
       </c>
       <c r="L994" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="M994" t="n">
-        <v>3148</v>
+        <v>3100</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q994" t="n">
         <v>16</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>160</v>
+        <v>1330</v>
       </c>
       <c r="K995" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="L995" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M995" t="n">
-        <v>4400</v>
+        <v>12500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q995" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K996" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L996" t="n">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="M996" t="n">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="Q996" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
         <v>340</v>
       </c>
       <c r="K997" t="n">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="L997" t="n">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="M997" t="n">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="Q997" t="n">
         <v>16</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
         <v>250</v>
       </c>
       <c r="K998" t="n">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="L998" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="M998" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="Q998" t="n">
         <v>16</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K999" t="n">
-        <v>5300</v>
+        <v>3000</v>
       </c>
       <c r="L999" t="n">
-        <v>5500</v>
+        <v>3300</v>
       </c>
       <c r="M999" t="n">
-        <v>5401</v>
+        <v>3148</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="Q999" t="n">
         <v>16</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72348,29 +72348,29 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K1000" t="n">
-        <v>8500</v>
+        <v>4300</v>
       </c>
       <c r="L1000" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M1000" t="n">
-        <v>8750</v>
+        <v>4400</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>486</v>
+        <v>275</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72420,29 +72420,29 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="K1001" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L1001" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="M1001" t="n">
-        <v>7750</v>
+        <v>5100</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72492,29 +72492,29 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K1002" t="n">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="L1002" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M1002" t="n">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K1003" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="L1003" t="n">
-        <v>5400</v>
+        <v>4400</v>
       </c>
       <c r="M1003" t="n">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="Q1003" t="n">
         <v>16</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,24 +72641,24 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K1004" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1004" t="n">
-        <v>7000</v>
+        <v>5401</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q1004" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72708,29 +72708,29 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K1005" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="L1005" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1005" t="n">
-        <v>4900</v>
+        <v>8750</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q1005" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,20 +72789,20 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K1006" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>300</v>
+        <v>431</v>
       </c>
       <c r="Q1006" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,20 +72861,20 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K1007" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L1007" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="M1007" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
@@ -72883,10 +72883,10 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1007" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="K1008" t="n">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="L1008" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="M1008" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1008" t="n">
         <v>16</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K1009" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1009" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M1009" t="n">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Q1009" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K1010" t="n">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="L1010" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1010" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Q1010" t="n">
         <v>16</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,24 +73145,24 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1011" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="L1011" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="Q1011" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1012" t="n">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="L1012" t="n">
-        <v>5500</v>
+        <v>4600</v>
       </c>
       <c r="M1012" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="Q1012" t="n">
         <v>16</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73284,29 +73284,29 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="K1013" t="n">
-        <v>6900</v>
+        <v>5600</v>
       </c>
       <c r="L1013" t="n">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="M1013" t="n">
-        <v>7151</v>
+        <v>5700</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="Q1013" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73356,29 +73356,29 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1014" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L1014" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M1014" t="n">
-        <v>6547</v>
+        <v>5100</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
@@ -73387,10 +73387,10 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="Q1014" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1015" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L1015" t="n">
         <v>4800</v>
       </c>
-      <c r="L1015" t="n">
-        <v>5200</v>
-      </c>
       <c r="M1015" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="Q1015" t="n">
         <v>16</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1016" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="L1016" t="n">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="M1016" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="Q1016" t="n">
         <v>16</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1017" t="n">
-        <v>3800</v>
+        <v>5300</v>
       </c>
       <c r="L1017" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="M1017" t="n">
-        <v>4000</v>
+        <v>5400</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q1017" t="n">
         <v>16</v>
@@ -73644,29 +73644,29 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="K1018" t="n">
-        <v>5300</v>
+        <v>6900</v>
       </c>
       <c r="L1018" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="M1018" t="n">
-        <v>5500</v>
+        <v>7151</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="Q1018" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,41 +73716,41 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>600</v>
+        <v>97</v>
       </c>
       <c r="K1019" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="L1019" t="n">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="M1019" t="n">
-        <v>8000</v>
+        <v>6547</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q1019" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,36 +73793,36 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>14000</v>
+        <v>430</v>
       </c>
       <c r="K1020" t="n">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="L1020" t="n">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="M1020" t="n">
-        <v>2657</v>
+        <v>5000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="Q1020" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K1021" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L1021" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M1021" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="Q1021" t="n">
         <v>16</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,36 +73937,36 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>9000</v>
+        <v>250</v>
       </c>
       <c r="K1022" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L1022" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M1022" t="n">
         <v>4000</v>
       </c>
-      <c r="M1022" t="n">
-        <v>3667</v>
-      </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="Q1022" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,24 +74009,24 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K1023" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L1023" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="M1023" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
@@ -74035,10 +74035,10 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="Q1023" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,20 +74085,20 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>5200</v>
+        <v>600</v>
       </c>
       <c r="K1024" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L1024" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M1024" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="Q1024" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1600</v>
+        <v>14000</v>
       </c>
       <c r="K1025" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L1025" t="n">
         <v>3000</v>
       </c>
       <c r="M1025" t="n">
-        <v>3000</v>
+        <v>2657</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q1025" t="n">
         <v>20</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,36 +74225,36 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K1027" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1027" t="n">
         <v>4000</v>
       </c>
       <c r="M1027" t="n">
-        <v>4000</v>
+        <v>3667</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="Q1027" t="n">
         <v>20</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74364,29 +74364,29 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K1028" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1028" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M1028" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
@@ -74395,10 +74395,10 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>583</v>
+        <v>403</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74436,41 +74436,41 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>70</v>
+        <v>5200</v>
       </c>
       <c r="K1029" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="L1029" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M1029" t="n">
-        <v>10750</v>
+        <v>3250</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>597</v>
+        <v>162</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>70</v>
+        <v>1600</v>
       </c>
       <c r="K1030" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L1030" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1030" t="n">
-        <v>7750</v>
+        <v>3000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>517</v>
+        <v>150</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,25 +74580,25 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K1031" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1031" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1031" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,36 +74657,36 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>430</v>
+        <v>3400</v>
       </c>
       <c r="K1032" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M1032" t="n">
-        <v>5100</v>
+        <v>4000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="Q1032" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74736,17 +74736,17 @@
         <v>160</v>
       </c>
       <c r="K1033" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1033" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1033" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="Q1033" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74796,29 +74796,29 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1034" t="n">
-        <v>4600</v>
+        <v>10500</v>
       </c>
       <c r="L1034" t="n">
-        <v>4800</v>
+        <v>11000</v>
       </c>
       <c r="M1034" t="n">
-        <v>4700</v>
+        <v>10750</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>294</v>
+        <v>597</v>
       </c>
       <c r="Q1034" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74880,17 +74880,17 @@
         <v>70</v>
       </c>
       <c r="K1035" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1035" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1035" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>288</v>
+        <v>517</v>
       </c>
       <c r="Q1035" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74940,29 +74940,29 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1036" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="L1036" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="M1036" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
@@ -74971,10 +74971,10 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>275</v>
+        <v>556</v>
       </c>
       <c r="Q1036" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K1037" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L1037" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M1037" t="n">
-        <v>5401</v>
+        <v>5100</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Q1037" t="n">
         <v>16</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,24 +75089,24 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1038" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="L1038" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="M1038" t="n">
-        <v>6200</v>
+        <v>6750</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
@@ -75115,10 +75115,10 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="Q1038" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1039" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1039" t="n">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="M1039" t="n">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="Q1039" t="n">
         <v>16</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,24 +75233,24 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1040" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1040" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1040" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
@@ -75259,10 +75259,10 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="Q1040" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="K1041" t="n">
-        <v>12000</v>
+        <v>4400</v>
       </c>
       <c r="L1041" t="n">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="M1041" t="n">
-        <v>12495</v>
+        <v>4400</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q1041" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,41 +75372,41 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K1042" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="L1042" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M1042" t="n">
-        <v>9500</v>
+        <v>5401</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="Q1042" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1043" t="n">
-        <v>4600</v>
+        <v>6100</v>
       </c>
       <c r="L1043" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="M1043" t="n">
-        <v>4800</v>
+        <v>6200</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="Q1043" t="n">
         <v>16</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1044" t="n">
         <v>160</v>
       </c>
       <c r="K1044" t="n">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="L1044" t="n">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="M1044" t="n">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="Q1044" t="n">
         <v>16</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1045" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="L1045" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M1045" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="Q1045" t="n">
         <v>16</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>97</v>
+        <v>970</v>
       </c>
       <c r="K1046" t="n">
-        <v>5100</v>
+        <v>12000</v>
       </c>
       <c r="L1046" t="n">
-        <v>5400</v>
+        <v>13000</v>
       </c>
       <c r="M1046" t="n">
-        <v>5248</v>
+        <v>12495</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>328</v>
+        <v>500</v>
       </c>
       <c r="Q1046" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,36 +75737,36 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K1047" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1047" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1047" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75804,29 +75804,29 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1048" t="n">
+        <v>4600</v>
+      </c>
+      <c r="L1048" t="n">
         <v>5000</v>
       </c>
-      <c r="L1048" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1048" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q1048" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1049" t="n">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="L1049" t="n">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="M1049" t="n">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="Q1049" t="n">
         <v>16</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K1050" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="L1050" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M1050" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="Q1050" t="n">
         <v>16</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K1051" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="L1051" t="n">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="M1051" t="n">
-        <v>4200</v>
+        <v>5248</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="Q1051" t="n">
         <v>16</v>
@@ -76092,29 +76092,29 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
         <v>160</v>
       </c>
       <c r="K1052" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L1052" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M1052" t="n">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
@@ -76123,10 +76123,10 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>338</v>
+        <v>500</v>
       </c>
       <c r="Q1052" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76164,29 +76164,29 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="K1053" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1053" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M1053" t="n">
-        <v>4150</v>
+        <v>5500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
@@ -76195,10 +76195,10 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="Q1053" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,36 +76241,36 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>8600</v>
+        <v>430</v>
       </c>
       <c r="K1054" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="L1054" t="n">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="M1054" t="n">
-        <v>2250</v>
+        <v>5100</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="Q1054" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76320,13 +76320,13 @@
         <v>340</v>
       </c>
       <c r="K1055" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="L1055" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="M1055" t="n">
-        <v>3650</v>
+        <v>4700</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="Q1055" t="n">
         <v>16</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,36 +76385,36 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1056" t="n">
+        <v>210</v>
+      </c>
+      <c r="K1056" t="n">
         <v>4200</v>
       </c>
-      <c r="K1056" t="n">
-        <v>1700</v>
-      </c>
       <c r="L1056" t="n">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="M1056" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="Q1056" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1057" t="n">
         <v>160</v>
       </c>
       <c r="K1057" t="n">
-        <v>3200</v>
+        <v>5300</v>
       </c>
       <c r="L1057" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="M1057" t="n">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="Q1057" t="n">
         <v>16</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1058" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1058" t="n">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="M1058" t="n">
-        <v>4650</v>
+        <v>4150</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="Q1058" t="n">
         <v>16</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76596,41 +76596,41 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>250</v>
+        <v>8600</v>
       </c>
       <c r="K1059" t="n">
-        <v>8000</v>
+        <v>2100</v>
       </c>
       <c r="L1059" t="n">
-        <v>9000</v>
+        <v>2400</v>
       </c>
       <c r="M1059" t="n">
-        <v>8400</v>
+        <v>2250</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="Q1059" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K1060" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L1060" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="M1060" t="n">
-        <v>8000</v>
+        <v>3650</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="Q1060" t="n">
         <v>16</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="K1061" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L1061" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M1061" t="n">
-        <v>2840</v>
+        <v>1800</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="Q1061" t="n">
         <v>20</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K1062" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="L1062" t="n">
-        <v>7000</v>
+        <v>3400</v>
       </c>
       <c r="M1062" t="n">
-        <v>7000</v>
+        <v>3300</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>438</v>
+        <v>206</v>
       </c>
       <c r="Q1062" t="n">
         <v>16</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,36 +76889,36 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="K1063" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L1063" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M1063" t="n">
-        <v>2000</v>
+        <v>4650</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="Q1063" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,41 +76956,41 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1064" t="n">
         <v>8000</v>
       </c>
-      <c r="K1064" t="n">
-        <v>3600</v>
-      </c>
       <c r="L1064" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M1064" t="n">
-        <v>3850</v>
+        <v>8400</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="Q1064" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77028,25 +77028,25 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>130</v>
+        <v>560</v>
       </c>
       <c r="K1065" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L1065" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1065" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="Q1065" t="n">
         <v>16</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77100,41 +77100,41 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="K1066" t="n">
-        <v>12000</v>
+        <v>2600</v>
       </c>
       <c r="L1066" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M1066" t="n">
-        <v>12000</v>
+        <v>2840</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>750</v>
+        <v>142</v>
       </c>
       <c r="Q1066" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K1067" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1067" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1067" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="Q1067" t="n">
         <v>16</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,36 +77249,36 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>280</v>
+        <v>5000</v>
       </c>
       <c r="K1068" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L1068" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M1068" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q1068" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,36 +77321,36 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K1069" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="L1069" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1069" t="n">
-        <v>3500</v>
+        <v>3850</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="Q1069" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77388,25 +77388,25 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="K1070" t="n">
-        <v>5200</v>
+        <v>14000</v>
       </c>
       <c r="L1070" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="M1070" t="n">
-        <v>5300</v>
+        <v>14000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>331</v>
+        <v>875</v>
       </c>
       <c r="Q1070" t="n">
         <v>16</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77460,25 +77460,25 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K1071" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="L1071" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1071" t="n">
-        <v>4900</v>
+        <v>12000</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>306</v>
+        <v>750</v>
       </c>
       <c r="Q1071" t="n">
         <v>16</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="K1072" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="L1072" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="M1072" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="Q1072" t="n">
         <v>16</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="K1073" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L1073" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="M1073" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q1073" t="n">
         <v>16</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77676,29 +77676,29 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="K1074" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1074" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M1074" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
@@ -77707,10 +77707,10 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>500</v>
+        <v>219</v>
       </c>
       <c r="Q1074" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77748,29 +77748,29 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="K1075" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="L1075" t="n">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="M1075" t="n">
-        <v>5494</v>
+        <v>5300</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
@@ -77779,10 +77779,10 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="Q1075" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77820,41 +77820,41 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1060</v>
+        <v>170</v>
       </c>
       <c r="K1076" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="L1076" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1076" t="n">
-        <v>9500</v>
+        <v>4900</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="Q1076" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77892,41 +77892,41 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="K1077" t="n">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="L1077" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="M1077" t="n">
-        <v>7500</v>
+        <v>4600</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q1077" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K1078" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="L1078" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="M1078" t="n">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q1078" t="n">
         <v>16</v>
@@ -78036,29 +78036,29 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K1079" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="L1079" t="n">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="M1079" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>297</v>
+        <v>500</v>
       </c>
       <c r="Q1079" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78108,29 +78108,29 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1080" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1080" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1080" t="n">
-        <v>4250</v>
+        <v>5494</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="Q1080" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78180,41 +78180,41 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>106</v>
+        <v>1060</v>
       </c>
       <c r="K1081" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L1081" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="M1081" t="n">
-        <v>5650</v>
+        <v>9500</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="Q1081" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78252,41 +78252,41 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1082" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="L1082" t="n">
-        <v>5600</v>
+        <v>8000</v>
       </c>
       <c r="M1082" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="Q1082" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1083" t="n">
         <v>5000</v>
       </c>
       <c r="L1083" t="n">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="M1083" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q1083" t="n">
         <v>16</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1084" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1084" t="n">
-        <v>5800</v>
+        <v>4900</v>
       </c>
       <c r="M1084" t="n">
-        <v>5800</v>
+        <v>4750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="Q1084" t="n">
         <v>16</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1085" t="n">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="L1085" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="M1085" t="n">
-        <v>5700</v>
+        <v>4250</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="Q1085" t="n">
         <v>16</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,24 +78545,24 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1086" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1086" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1086" t="n">
-        <v>6750</v>
+        <v>5650</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
@@ -78571,10 +78571,10 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q1086" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1087" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="L1087" t="n">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="M1087" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q1087" t="n">
         <v>16</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="Q1088" t="n">
         <v>16</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1089" t="n">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="L1089" t="n">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="M1089" t="n">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="Q1089" t="n">
         <v>16</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1090" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="L1090" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M1090" t="n">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="Q1090" t="n">
         <v>16</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,24 +78905,24 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1091" t="n">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="L1091" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="M1091" t="n">
-        <v>4600</v>
+        <v>6750</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
@@ -78931,10 +78931,10 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="Q1091" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K1092" t="n">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="L1092" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="M1092" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="Q1092" t="n">
         <v>16</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,41 +79044,41 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K1093" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1093" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1093" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="Q1093" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K1094" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="L1094" t="n">
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="M1094" t="n">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="Q1094" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1095" t="n">
-        <v>6200</v>
+        <v>4800</v>
       </c>
       <c r="L1095" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="M1095" t="n">
-        <v>6300</v>
+        <v>4900</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="Q1095" t="n">
         <v>16</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1096" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="L1096" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="M1096" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="Q1096" t="n">
         <v>16</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1097" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="L1097" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M1097" t="n">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="Q1097" t="n">
         <v>16</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79404,41 +79404,41 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K1098" t="n">
-        <v>6100</v>
+        <v>11000</v>
       </c>
       <c r="L1098" t="n">
-        <v>6300</v>
+        <v>11000</v>
       </c>
       <c r="M1098" t="n">
-        <v>6200</v>
+        <v>11000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="Q1098" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79476,41 +79476,41 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1099" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="L1099" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="M1099" t="n">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q1099" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1100" t="n">
         <v>340</v>
       </c>
       <c r="K1100" t="n">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="L1100" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="M1100" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Q1100" t="n">
         <v>16</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79620,25 +79620,25 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K1101" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="L1101" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1101" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>500</v>
+        <v>362</v>
       </c>
       <c r="Q1101" t="n">
         <v>16</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K1102" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1102" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1102" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="Q1102" t="n">
         <v>16</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79773,20 +79773,20 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K1103" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1103" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1103" t="n">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K1104" t="n">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="L1104" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="M1104" t="n">
-        <v>7227</v>
+        <v>5700</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="Q1104" t="n">
         <v>16</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,24 +79913,24 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K1105" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1105" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1105" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
@@ -79939,10 +79939,10 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79980,25 +79980,25 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K1106" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1106" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M1106" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="Q1106" t="n">
         <v>16</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,36 +80057,36 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K1107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1107" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1107" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>567</v>
+        <v>438</v>
       </c>
       <c r="Q1107" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80124,25 +80124,25 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>97</v>
+        <v>700</v>
       </c>
       <c r="K1108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1108" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1108" t="n">
-        <v>10505</v>
+        <v>7000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="Q1108" t="n">
         <v>18</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="K1109" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1109" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1109" t="n">
-        <v>6494</v>
+        <v>7227</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80268,25 +80268,25 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="K1110" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1110" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1110" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K1111" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L1111" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1111" t="n">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80367,11 +80367,11 @@
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="Q1111" t="n">
         <v>16</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,20 +80421,20 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1112" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1112" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
@@ -80443,10 +80443,10 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="Q1112" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80484,29 +80484,29 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1113" t="n">
-        <v>4400</v>
+        <v>10000</v>
       </c>
       <c r="L1113" t="n">
-        <v>4600</v>
+        <v>11000</v>
       </c>
       <c r="M1113" t="n">
-        <v>4500</v>
+        <v>10505</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
@@ -80515,10 +80515,10 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>281</v>
+        <v>584</v>
       </c>
       <c r="Q1113" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,20 +80565,20 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1114" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1114" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1114" t="n">
-        <v>8512</v>
+        <v>6494</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q1114" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80628,29 +80628,29 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1115" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1115" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M1115" t="n">
-        <v>4100</v>
+        <v>8500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
@@ -80659,10 +80659,10 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="Q1115" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1116" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="L1116" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="M1116" t="n">
-        <v>5299</v>
+        <v>4900</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="Q1116" t="n">
         <v>16</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80781,20 +80781,20 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K1117" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1117" t="n">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="M1117" t="n">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
@@ -80803,10 +80803,10 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="Q1117" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1118" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1118" t="n">
         <v>4600</v>
       </c>
-      <c r="L1118" t="n">
-        <v>4800</v>
-      </c>
       <c r="M1118" t="n">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="Q1118" t="n">
         <v>16</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,24 +80921,24 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1119" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="L1119" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M1119" t="n">
-        <v>4200</v>
+        <v>8512</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
@@ -80947,10 +80947,10 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="Q1119" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1120" t="n">
         <v>160</v>
       </c>
       <c r="K1120" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="L1120" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M1120" t="n">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="Q1120" t="n">
         <v>16</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="K1121" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="L1121" t="n">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="M1121" t="n">
-        <v>6650</v>
+        <v>5299</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="Q1121" t="n">
         <v>16</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1122" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1122" t="n">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="M1122" t="n">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="Q1122" t="n">
         <v>16</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1123" t="n">
         <v>340</v>
       </c>
       <c r="K1123" t="n">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="L1123" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M1123" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>438</v>
+        <v>294</v>
       </c>
       <c r="Q1123" t="n">
         <v>16</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1124" t="n">
-        <v>5400</v>
+        <v>4200</v>
       </c>
       <c r="L1124" t="n">
-        <v>5600</v>
+        <v>4200</v>
       </c>
       <c r="M1124" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="Q1124" t="n">
         <v>16</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1125" t="n">
         <v>160</v>
       </c>
       <c r="K1125" t="n">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="L1125" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M1125" t="n">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q1125" t="n">
         <v>16</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K1126" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L1126" t="n">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="M1126" t="n">
-        <v>5800</v>
+        <v>6650</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="Q1126" t="n">
         <v>16</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1127" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="L1127" t="n">
         <v>6400</v>
       </c>
       <c r="M1127" t="n">
-        <v>6250</v>
+        <v>6200</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q1127" t="n">
         <v>16</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,36 +81569,36 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1128" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1128" t="n">
         <v>7000</v>
       </c>
-      <c r="K1128" t="n">
-        <v>2200</v>
-      </c>
       <c r="L1128" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M1128" t="n">
-        <v>2350</v>
+        <v>7000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>118</v>
+        <v>438</v>
       </c>
       <c r="Q1128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1129" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="L1129" t="n">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="M1129" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="Q1129" t="n">
         <v>16</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81717,32 +81717,32 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>3400</v>
+        <v>160</v>
       </c>
       <c r="K1130" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="L1130" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="M1130" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="Q1130" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81792,13 +81792,13 @@
         <v>250</v>
       </c>
       <c r="K1131" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="L1131" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="M1131" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="Q1131" t="n">
         <v>16</v>
@@ -81857,24 +81857,24 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1132" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1132" t="n">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="M1132" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
@@ -81883,10 +81883,10 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="Q1132" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="K1133" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1133" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1133" t="n">
-        <v>2800</v>
+        <v>2350</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="Q1133" t="n">
         <v>20</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1134" t="n">
         <v>340</v>
       </c>
       <c r="K1134" t="n">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="L1134" t="n">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="M1134" t="n">
-        <v>5250</v>
+        <v>5800</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Q1134" t="n">
         <v>16</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,36 +82073,36 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>250</v>
+        <v>3400</v>
       </c>
       <c r="K1135" t="n">
-        <v>4700</v>
+        <v>2000</v>
       </c>
       <c r="L1135" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M1135" t="n">
-        <v>4850</v>
+        <v>2000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="Q1135" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1136" t="n">
-        <v>4300</v>
+        <v>6600</v>
       </c>
       <c r="L1136" t="n">
-        <v>4600</v>
+        <v>6600</v>
       </c>
       <c r="M1136" t="n">
-        <v>4450</v>
+        <v>6600</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="Q1136" t="n">
         <v>16</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,24 +82217,24 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1137" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1137" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M1137" t="n">
-        <v>5652</v>
+        <v>7000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
@@ -82243,10 +82243,10 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q1137" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,36 +82289,36 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>430</v>
+        <v>5200</v>
       </c>
       <c r="K1138" t="n">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="L1138" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="M1138" t="n">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>356</v>
+        <v>140</v>
       </c>
       <c r="Q1138" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1139" t="n">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="L1139" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="M1139" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q1139" t="n">
         <v>16</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1140" t="n">
         <v>250</v>
       </c>
       <c r="K1140" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="L1140" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1140" t="n">
-        <v>6000</v>
+        <v>4850</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="Q1140" t="n">
         <v>16</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82500,41 +82500,41 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K1141" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="L1141" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="M1141" t="n">
-        <v>8000</v>
+        <v>4450</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="Q1141" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82572,41 +82572,41 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1500</v>
+        <v>97</v>
       </c>
       <c r="K1142" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1142" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1142" t="n">
-        <v>7467</v>
+        <v>5652</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="Q1142" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82649,24 +82649,24 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="K1143" t="n">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="L1143" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1143" t="n">
-        <v>8000</v>
+        <v>5700</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
@@ -82675,10 +82675,10 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="Q1143" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1144" t="n">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="L1144" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="M1144" t="n">
-        <v>3850</v>
+        <v>5300</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="Q1144" t="n">
         <v>16</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,24 +82793,24 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>8600</v>
+        <v>250</v>
       </c>
       <c r="K1145" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L1145" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="M1145" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
@@ -82819,10 +82819,10 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>105</v>
+        <v>375</v>
       </c>
       <c r="Q1145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82860,41 +82860,41 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K1146" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="L1146" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M1146" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="Q1146" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82932,41 +82932,41 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="K1147" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L1147" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M1147" t="n">
-        <v>1650</v>
+        <v>7467</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="Q1147" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83009,24 +83009,24 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="K1148" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="L1148" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="M1148" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="Q1148" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83081,20 +83081,20 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K1149" t="n">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="L1149" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="M1149" t="n">
-        <v>4250</v>
+        <v>3850</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,12 +83107,372 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="Q1149" t="n">
         <v>16</v>
       </c>
       <c r="R1149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1150" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1150" t="n">
+        <v>8600</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1150" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1150" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1151" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1151" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>3600</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N1151" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1151" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1151" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1152" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1152" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N1152" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1152" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1152" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1153" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1153" t="n">
+        <v>88</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1153" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1153" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>Extra Guarda</t>
+        </is>
+      </c>
+      <c r="J1154" t="n">
+        <v>196</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>4100</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>4400</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1154" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1154" t="n">
+        <v>266</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1154" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1161"/>
+  <dimension ref="A1:R1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,20 +80925,20 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K1119" t="n">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="L1119" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="M1119" t="n">
-        <v>8500</v>
+        <v>5050</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
@@ -80947,10 +80947,10 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>567</v>
+        <v>316</v>
       </c>
       <c r="Q1119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80988,29 +80988,29 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>97</v>
+        <v>8600</v>
       </c>
       <c r="K1120" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L1120" t="n">
-        <v>11000</v>
+        <v>2200</v>
       </c>
       <c r="M1120" t="n">
-        <v>10505</v>
+        <v>2100</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
@@ -81019,10 +81019,10 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,20 +81069,20 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K1121" t="n">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="L1121" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M1121" t="n">
-        <v>6494</v>
+        <v>4550</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
@@ -81091,10 +81091,10 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="Q1121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81132,29 +81132,29 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>52</v>
+        <v>3200</v>
       </c>
       <c r="K1122" t="n">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="L1122" t="n">
-        <v>9000</v>
+        <v>1800</v>
       </c>
       <c r="M1122" t="n">
-        <v>8500</v>
+        <v>1700</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
@@ -81163,10 +81163,10 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>472</v>
+        <v>85</v>
       </c>
       <c r="Q1122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81204,7 +81204,7 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -81213,20 +81213,20 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1123" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="L1123" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1123" t="n">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
@@ -81235,10 +81235,10 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>306</v>
+        <v>567</v>
       </c>
       <c r="Q1123" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81285,7 +81285,7 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K1124" t="n">
         <v>10000</v>
@@ -81294,11 +81294,11 @@
         <v>11000</v>
       </c>
       <c r="M1124" t="n">
-        <v>10500</v>
+        <v>10505</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
@@ -81307,10 +81307,10 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="Q1124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,20 +81357,20 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K1125" t="n">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="L1125" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="M1125" t="n">
-        <v>4500</v>
+        <v>6494</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
@@ -81379,10 +81379,10 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>281</v>
+        <v>433</v>
       </c>
       <c r="Q1125" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,7 +81429,7 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1126" t="n">
         <v>8000</v>
@@ -81438,11 +81438,11 @@
         <v>9000</v>
       </c>
       <c r="M1126" t="n">
-        <v>8512</v>
+        <v>8500</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
@@ -81451,10 +81451,10 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="Q1126" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1127" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L1127" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M1127" t="n">
-        <v>4100</v>
+        <v>4900</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="Q1127" t="n">
         <v>16</v>
@@ -81569,24 +81569,24 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1128" t="n">
-        <v>5200</v>
+        <v>10000</v>
       </c>
       <c r="L1128" t="n">
-        <v>5400</v>
+        <v>11000</v>
       </c>
       <c r="M1128" t="n">
-        <v>5299</v>
+        <v>10500</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
@@ -81595,10 +81595,10 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>331</v>
+        <v>525</v>
       </c>
       <c r="Q1128" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1129" t="n">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="L1129" t="n">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="M1129" t="n">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="Q1129" t="n">
         <v>16</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81717,20 +81717,20 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K1130" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="L1130" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M1130" t="n">
-        <v>4700</v>
+        <v>8512</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
@@ -81739,10 +81739,10 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="Q1130" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1131" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="L1131" t="n">
         <v>4200</v>
       </c>
       <c r="M1131" t="n">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q1131" t="n">
         <v>16</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1132" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L1132" t="n">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="M1132" t="n">
-        <v>5400</v>
+        <v>5299</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q1132" t="n">
         <v>16</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K1133" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1133" t="n">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="M1133" t="n">
-        <v>6650</v>
+        <v>5100</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="Q1133" t="n">
         <v>16</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1134" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="L1134" t="n">
-        <v>6400</v>
+        <v>4800</v>
       </c>
       <c r="M1134" t="n">
-        <v>6200</v>
+        <v>4700</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="Q1134" t="n">
         <v>16</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1135" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="L1135" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="M1135" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>438</v>
+        <v>262</v>
       </c>
       <c r="Q1135" t="n">
         <v>16</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,21 +82145,21 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1136" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1136" t="n">
         <v>5400</v>
       </c>
-      <c r="L1136" t="n">
-        <v>5600</v>
-      </c>
-      <c r="M1136" t="n">
-        <v>5500</v>
-      </c>
       <c r="N1136" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q1136" t="n">
         <v>16</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K1137" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="L1137" t="n">
-        <v>5200</v>
+        <v>6800</v>
       </c>
       <c r="M1137" t="n">
-        <v>5200</v>
+        <v>6650</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="Q1137" t="n">
         <v>16</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1138" t="n">
         <v>250</v>
       </c>
       <c r="K1138" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L1138" t="n">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="M1138" t="n">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="Q1138" t="n">
         <v>16</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K1139" t="n">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="L1139" t="n">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="M1139" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Q1139" t="n">
         <v>16</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82437,32 +82437,32 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>7000</v>
+        <v>430</v>
       </c>
       <c r="K1140" t="n">
-        <v>2200</v>
+        <v>5400</v>
       </c>
       <c r="L1140" t="n">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="M1140" t="n">
-        <v>2350</v>
+        <v>5500</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="Q1140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1141" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="L1141" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M1141" t="n">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="Q1141" t="n">
         <v>16</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,36 +82577,36 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>3400</v>
+        <v>250</v>
       </c>
       <c r="K1142" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="L1142" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M1142" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>100</v>
+        <v>362</v>
       </c>
       <c r="Q1142" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K1143" t="n">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="L1143" t="n">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="M1143" t="n">
-        <v>6600</v>
+        <v>6250</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q1143" t="n">
         <v>16</v>
@@ -82721,33 +82721,33 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>70</v>
+        <v>7000</v>
       </c>
       <c r="K1144" t="n">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="L1144" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M1144" t="n">
-        <v>7000</v>
+        <v>2350</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="Q1144" t="n">
         <v>20</v>
@@ -82793,36 +82793,36 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>5200</v>
+        <v>340</v>
       </c>
       <c r="K1145" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="L1145" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="M1145" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>140</v>
+        <v>362</v>
       </c>
       <c r="Q1145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82865,36 +82865,36 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="K1146" t="n">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="L1146" t="n">
-        <v>5400</v>
+        <v>2000</v>
       </c>
       <c r="M1146" t="n">
-        <v>5250</v>
+        <v>2000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="Q1146" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1147" t="n">
         <v>250</v>
       </c>
       <c r="K1147" t="n">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="L1147" t="n">
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="M1147" t="n">
-        <v>4850</v>
+        <v>6600</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="Q1147" t="n">
         <v>16</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83009,24 +83009,24 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1148" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1148" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="M1148" t="n">
-        <v>4450</v>
+        <v>7000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="Q1148" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83081,36 +83081,36 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>97</v>
+        <v>5200</v>
       </c>
       <c r="K1149" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L1149" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="M1149" t="n">
-        <v>5652</v>
+        <v>2800</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>353</v>
+        <v>140</v>
       </c>
       <c r="Q1149" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83153,20 +83153,20 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K1150" t="n">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="L1150" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="M1150" t="n">
-        <v>5700</v>
+        <v>5250</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="Q1150" t="n">
         <v>16</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83225,20 +83225,20 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1151" t="n">
         <v>250</v>
       </c>
       <c r="K1151" t="n">
-        <v>5300</v>
+        <v>4700</v>
       </c>
       <c r="L1151" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="M1151" t="n">
-        <v>5300</v>
+        <v>4850</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="Q1151" t="n">
         <v>16</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83297,20 +83297,20 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1152" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L1152" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M1152" t="n">
-        <v>6000</v>
+        <v>4450</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="Q1152" t="n">
         <v>16</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83364,41 +83364,41 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1100</v>
+        <v>97</v>
       </c>
       <c r="K1153" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1153" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1153" t="n">
-        <v>8000</v>
+        <v>5652</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Q1153" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83436,41 +83436,41 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>1500</v>
+        <v>430</v>
       </c>
       <c r="K1154" t="n">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="L1154" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1154" t="n">
-        <v>7467</v>
+        <v>5700</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="Q1154" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83513,24 +83513,24 @@
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K1155" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="L1155" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="M1155" t="n">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
@@ -83539,10 +83539,10 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="Q1155" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83585,20 +83585,20 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1156" t="n">
-        <v>3700</v>
+        <v>6000</v>
       </c>
       <c r="L1156" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1156" t="n">
-        <v>3850</v>
+        <v>6000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="Q1156" t="n">
         <v>16</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83652,41 +83652,41 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>8600</v>
+        <v>1100</v>
       </c>
       <c r="K1157" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L1157" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="M1157" t="n">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="Q1157" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83724,41 +83724,41 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1158" t="n">
-        <v>3200</v>
+        <v>7000</v>
       </c>
       <c r="L1158" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M1158" t="n">
-        <v>3400</v>
+        <v>7467</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="Q1158" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83801,24 +83801,24 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>3200</v>
+        <v>550</v>
       </c>
       <c r="K1159" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="L1159" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M1159" t="n">
-        <v>1650</v>
+        <v>8000</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
@@ -83827,10 +83827,10 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="Q1159" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83873,20 +83873,20 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="K1160" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="L1160" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M1160" t="n">
-        <v>3000</v>
+        <v>3850</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="Q1160" t="n">
         <v>16</v>
@@ -83945,38 +83945,326 @@
       </c>
       <c r="I1161" t="inlineStr">
         <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1161" t="n">
+        <v>8600</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1161" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1161" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1162" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>3600</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1162" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1162" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1163" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1163" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1163" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1164" t="n">
+        <v>88</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1164" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1164" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1164" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
           <t>Extra Guarda</t>
         </is>
       </c>
-      <c r="J1161" t="n">
+      <c r="J1165" t="n">
         <v>196</v>
       </c>
-      <c r="K1161" t="n">
+      <c r="K1165" t="n">
         <v>4100</v>
       </c>
-      <c r="L1161" t="n">
+      <c r="L1165" t="n">
         <v>4400</v>
       </c>
-      <c r="M1161" t="n">
+      <c r="M1165" t="n">
         <v>4250</v>
       </c>
-      <c r="N1161" t="inlineStr">
+      <c r="N1165" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="O1161" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P1161" t="n">
+      <c r="O1165" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1165" t="n">
         <v>266</v>
       </c>
-      <c r="Q1161" t="n">
+      <c r="Q1165" t="n">
         <v>16</v>
       </c>
-      <c r="R1161" t="inlineStr">
+      <c r="R1165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1188"/>
+  <dimension ref="A1:R1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81564,41 +81564,41 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K1128" t="n">
-        <v>11000</v>
+        <v>4600</v>
       </c>
       <c r="L1128" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M1128" t="n">
-        <v>11000</v>
+        <v>4800</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="Q1128" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81636,41 +81636,41 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K1129" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="L1129" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="M1129" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="Q1129" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81713,24 +81713,24 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>340</v>
+        <v>8600</v>
       </c>
       <c r="K1130" t="n">
-        <v>6200</v>
+        <v>1800</v>
       </c>
       <c r="L1130" t="n">
-        <v>6400</v>
+        <v>2200</v>
       </c>
       <c r="M1130" t="n">
-        <v>6300</v>
+        <v>2000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
@@ -81739,10 +81739,10 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>394</v>
+        <v>100</v>
       </c>
       <c r="Q1130" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K1131" t="n">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="L1131" t="n">
-        <v>5800</v>
+        <v>4400</v>
       </c>
       <c r="M1131" t="n">
-        <v>5800</v>
+        <v>4200</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="Q1131" t="n">
         <v>16</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81857,24 +81857,24 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K1132" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="L1132" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="M1132" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
@@ -81883,10 +81883,10 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="Q1132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,24 +81929,24 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>430</v>
+        <v>3200</v>
       </c>
       <c r="K1133" t="n">
-        <v>6100</v>
+        <v>1400</v>
       </c>
       <c r="L1133" t="n">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="M1133" t="n">
-        <v>6200</v>
+        <v>1500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
@@ -81955,10 +81955,10 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="Q1133" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -81996,41 +81996,41 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K1134" t="n">
-        <v>5700</v>
+        <v>11000</v>
       </c>
       <c r="L1134" t="n">
-        <v>5700</v>
+        <v>11000</v>
       </c>
       <c r="M1134" t="n">
-        <v>5700</v>
+        <v>11000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="Q1134" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82068,41 +82068,41 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1135" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L1135" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M1135" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="Q1135" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82140,25 +82140,25 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K1136" t="n">
-        <v>8000</v>
+        <v>6200</v>
       </c>
       <c r="L1136" t="n">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="M1136" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82167,11 +82167,11 @@
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>500</v>
+        <v>394</v>
       </c>
       <c r="Q1136" t="n">
         <v>16</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82212,25 +82212,25 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1137" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L1137" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1137" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="Q1137" t="n">
         <v>16</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,24 +82289,24 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K1138" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1138" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1138" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
@@ -82315,10 +82315,10 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="K1139" t="n">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="L1139" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="M1139" t="n">
-        <v>7227</v>
+        <v>6200</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82383,11 +82383,11 @@
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="Q1139" t="n">
         <v>16</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82437,20 +82437,20 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1140" t="n">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="L1140" t="n">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="M1140" t="n">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="Q1140" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82505,11 +82505,11 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K1141" t="n">
         <v>6500</v>
@@ -82527,7 +82527,7 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Provincia de Talagante</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1141" t="n">
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82572,25 +82572,25 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K1142" t="n">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="L1142" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M1142" t="n">
-        <v>5050</v>
+        <v>8000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>316</v>
+        <v>500</v>
       </c>
       <c r="Q1142" t="n">
         <v>16</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82644,41 +82644,41 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>8600</v>
+        <v>400</v>
       </c>
       <c r="K1143" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L1143" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="M1143" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="Q1143" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82721,24 +82721,24 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1144" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="L1144" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="M1144" t="n">
-        <v>4550</v>
+        <v>7000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
@@ -82747,10 +82747,10 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="Q1144" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,36 +82793,36 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>3200</v>
+        <v>550</v>
       </c>
       <c r="K1145" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="L1145" t="n">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="M1145" t="n">
-        <v>1700</v>
+        <v>7227</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="Q1145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82860,29 +82860,29 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K1146" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1146" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1146" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
@@ -82891,10 +82891,10 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>567</v>
+        <v>333</v>
       </c>
       <c r="Q1146" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82932,41 +82932,41 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="K1147" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L1147" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M1147" t="n">
-        <v>10505</v>
+        <v>6500</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>584</v>
+        <v>406</v>
       </c>
       <c r="Q1147" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83004,29 +83004,29 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K1148" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="L1148" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M1148" t="n">
-        <v>6494</v>
+        <v>5050</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>433</v>
+        <v>316</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83076,29 +83076,29 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>52</v>
+        <v>8600</v>
       </c>
       <c r="K1149" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L1149" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="M1149" t="n">
-        <v>8500</v>
+        <v>2100</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
@@ -83107,10 +83107,10 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="Q1149" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83153,20 +83153,20 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1150" t="n">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="L1150" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="M1150" t="n">
-        <v>4900</v>
+        <v>4550</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Q1150" t="n">
         <v>16</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83225,24 +83225,24 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>70</v>
+        <v>3200</v>
       </c>
       <c r="K1151" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="L1151" t="n">
-        <v>11000</v>
+        <v>1800</v>
       </c>
       <c r="M1151" t="n">
-        <v>10500</v>
+        <v>1700</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>525</v>
+        <v>85</v>
       </c>
       <c r="Q1151" t="n">
         <v>20</v>
@@ -83292,29 +83292,29 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1152" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="L1152" t="n">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="M1152" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
@@ -83323,10 +83323,10 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>281</v>
+        <v>567</v>
       </c>
       <c r="Q1152" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83364,29 +83364,29 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K1153" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1153" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1153" t="n">
-        <v>8512</v>
+        <v>10505</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
@@ -83395,10 +83395,10 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="Q1153" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83436,29 +83436,29 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1154" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1154" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="M1154" t="n">
-        <v>4100</v>
+        <v>6494</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
@@ -83467,10 +83467,10 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>256</v>
+        <v>433</v>
       </c>
       <c r="Q1154" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83508,29 +83508,29 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K1155" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="L1155" t="n">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="M1155" t="n">
-        <v>5299</v>
+        <v>8500</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
@@ -83539,10 +83539,10 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>331</v>
+        <v>472</v>
       </c>
       <c r="Q1155" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K1156" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L1156" t="n">
         <v>5000</v>
       </c>
-      <c r="L1156" t="n">
-        <v>5200</v>
-      </c>
       <c r="M1156" t="n">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q1156" t="n">
         <v>16</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83657,24 +83657,24 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1157" t="n">
-        <v>4600</v>
+        <v>10000</v>
       </c>
       <c r="L1157" t="n">
-        <v>4800</v>
+        <v>11000</v>
       </c>
       <c r="M1157" t="n">
-        <v>4700</v>
+        <v>10500</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
@@ -83683,10 +83683,10 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>294</v>
+        <v>525</v>
       </c>
       <c r="Q1157" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83729,20 +83729,20 @@
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1158" t="n">
         <v>250</v>
       </c>
       <c r="K1158" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="L1158" t="n">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="M1158" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q1158" t="n">
         <v>16</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83801,24 +83801,24 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1159" t="n">
-        <v>5300</v>
+        <v>8000</v>
       </c>
       <c r="L1159" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M1159" t="n">
-        <v>5400</v>
+        <v>8512</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
@@ -83827,10 +83827,10 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="Q1159" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83873,20 +83873,20 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K1160" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1160" t="n">
-        <v>6800</v>
+        <v>4200</v>
       </c>
       <c r="M1160" t="n">
-        <v>6650</v>
+        <v>4100</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="Q1160" t="n">
         <v>16</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83945,20 +83945,20 @@
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1161" t="n">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="L1161" t="n">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="M1161" t="n">
-        <v>6200</v>
+        <v>5299</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="Q1161" t="n">
         <v>16</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84017,20 +84017,20 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Extra nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1162" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1162" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="M1162" t="n">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="Q1162" t="n">
         <v>16</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K1163" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="L1163" t="n">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="M1163" t="n">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="Q1163" t="n">
         <v>16</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84161,20 +84161,20 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1164" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="L1164" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="M1164" t="n">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="Q1164" t="n">
         <v>16</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84233,20 +84233,20 @@
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1165" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="L1165" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M1165" t="n">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q1165" t="n">
         <v>16</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84305,20 +84305,20 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K1166" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="L1166" t="n">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="M1166" t="n">
-        <v>6250</v>
+        <v>6650</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="Q1166" t="n">
         <v>16</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84377,36 +84377,36 @@
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="K1167" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="L1167" t="n">
-        <v>2500</v>
+        <v>6400</v>
       </c>
       <c r="M1167" t="n">
-        <v>2350</v>
+        <v>6200</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="Q1167" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84449,20 +84449,20 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra nueva (o)</t>
         </is>
       </c>
       <c r="J1168" t="n">
         <v>340</v>
       </c>
       <c r="K1168" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="L1168" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M1168" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="Q1168" t="n">
         <v>16</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84521,36 +84521,36 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>3400</v>
+        <v>430</v>
       </c>
       <c r="K1169" t="n">
-        <v>2000</v>
+        <v>5400</v>
       </c>
       <c r="L1169" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="M1169" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="Q1169" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84593,20 +84593,20 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1170" t="n">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="L1170" t="n">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="M1170" t="n">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="Q1170" t="n">
         <v>16</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -84669,20 +84669,20 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1171" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L1171" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1171" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
@@ -84691,10 +84691,10 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q1171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84737,36 +84737,36 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>5200</v>
+        <v>430</v>
       </c>
       <c r="K1172" t="n">
-        <v>2800</v>
+        <v>6100</v>
       </c>
       <c r="L1172" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="M1172" t="n">
-        <v>2800</v>
+        <v>6250</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>140</v>
+        <v>391</v>
       </c>
       <c r="Q1172" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84809,36 +84809,36 @@
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>340</v>
+        <v>7000</v>
       </c>
       <c r="K1173" t="n">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="L1173" t="n">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="M1173" t="n">
-        <v>5250</v>
+        <v>2350</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="Q1173" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84881,20 +84881,20 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1174" t="n">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="L1174" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M1174" t="n">
-        <v>4850</v>
+        <v>5800</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="Q1174" t="n">
         <v>16</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84953,36 +84953,36 @@
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>160</v>
+        <v>3400</v>
       </c>
       <c r="K1175" t="n">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="L1175" t="n">
-        <v>4600</v>
+        <v>2000</v>
       </c>
       <c r="M1175" t="n">
-        <v>4450</v>
+        <v>2000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>278</v>
+        <v>100</v>
       </c>
       <c r="Q1175" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -85025,20 +85025,20 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Extra Guarda</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K1176" t="n">
-        <v>5500</v>
+        <v>6600</v>
       </c>
       <c r="L1176" t="n">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="M1176" t="n">
-        <v>5652</v>
+        <v>6600</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="Q1176" t="n">
         <v>16</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -85097,24 +85097,24 @@
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K1177" t="n">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="L1177" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M1177" t="n">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
@@ -85123,10 +85123,10 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q1177" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -85169,36 +85169,36 @@
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>250</v>
+        <v>5200</v>
       </c>
       <c r="K1178" t="n">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="L1178" t="n">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="M1178" t="n">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>331</v>
+        <v>140</v>
       </c>
       <c r="Q1178" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -85241,20 +85241,20 @@
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Extra Cosecha</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1179" t="n">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="L1179" t="n">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="M1179" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="Q1179" t="n">
         <v>16</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85308,41 +85308,41 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K1180" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="L1180" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1180" t="n">
-        <v>8000</v>
+        <v>4850</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Q1180" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85380,41 +85380,41 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K1181" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L1181" t="n">
-        <v>8000</v>
+        <v>4600</v>
       </c>
       <c r="M1181" t="n">
-        <v>7467</v>
+        <v>4450</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="Q1181" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85457,24 +85457,24 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Extra Guarda</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>550</v>
+        <v>97</v>
       </c>
       <c r="K1182" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1182" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M1182" t="n">
-        <v>8000</v>
+        <v>5652</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
@@ -85483,10 +85483,10 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="Q1182" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85529,20 +85529,20 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1183" t="n">
         <v>430</v>
       </c>
       <c r="K1183" t="n">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="L1183" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="M1183" t="n">
-        <v>3850</v>
+        <v>5700</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="Q1183" t="n">
         <v>16</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85601,24 +85601,24 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>8600</v>
+        <v>250</v>
       </c>
       <c r="K1184" t="n">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="L1184" t="n">
-        <v>2200</v>
+        <v>5300</v>
       </c>
       <c r="M1184" t="n">
-        <v>2100</v>
+        <v>5300</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
@@ -85627,10 +85627,10 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="Q1184" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85673,20 +85673,20 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Extra Cosecha</t>
         </is>
       </c>
       <c r="J1185" t="n">
         <v>250</v>
       </c>
       <c r="K1185" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="L1185" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M1185" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="Q1185" t="n">
         <v>16</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85740,41 +85740,41 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1186" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="L1186" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M1186" t="n">
-        <v>1650</v>
+        <v>8000</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="Q1186" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85812,41 +85812,41 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>88</v>
+        <v>1500</v>
       </c>
       <c r="K1187" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L1187" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="M1187" t="n">
-        <v>3000</v>
+        <v>7467</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="Q1187" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85869,58 +85869,490 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1188" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1188" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1188" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1188" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1188" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1189" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1188" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1188" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H1188" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1188" t="inlineStr">
+      <c r="E1189" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1189" t="n">
+        <v>430</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>3700</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>3850</v>
+      </c>
+      <c r="N1189" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1189" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1189" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1189" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1190" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1190" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1190" t="n">
+        <v>8600</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N1190" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1190" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1190" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1190" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1191" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1191" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>3600</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N1191" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1191" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1191" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1191" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1192" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N1192" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1192" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1192" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1192" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1193" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1193" t="n">
+        <v>88</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1193" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="O1193" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1193" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G1194" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1194" t="inlineStr">
         <is>
           <t>Extra Guarda</t>
         </is>
       </c>
-      <c r="J1188" t="n">
+      <c r="J1194" t="n">
         <v>196</v>
       </c>
-      <c r="K1188" t="n">
+      <c r="K1194" t="n">
         <v>4100</v>
       </c>
-      <c r="L1188" t="n">
+      <c r="L1194" t="n">
         <v>4400</v>
       </c>
-      <c r="M1188" t="n">
+      <c r="M1194" t="n">
         <v>4250</v>
       </c>
-      <c r="N1188" t="inlineStr">
+      <c r="N1194" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="O1188" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P1188" t="n">
+      <c r="O1194" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1194" t="n">
         <v>266</v>
       </c>
-      <c r="Q1188" t="n">
+      <c r="Q1194" t="n">
         <v>16</v>
       </c>
-      <c r="R1188" t="inlineStr">
+      <c r="R1194" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
